--- a/ロボコン進捗管理表_20170527.xlsx
+++ b/ロボコン進捗管理表_20170527.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,15 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>チーム</t>
     <phoneticPr fontId="2"/>
@@ -305,6 +303,10 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -862,6 +864,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,6 +939,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -897,33 +959,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,47 +993,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,9 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:DK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1788,153 +1788,153 @@
       </c>
     </row>
     <row r="10" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="64" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64" t="s">
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="62" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62" t="s">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62" t="s">
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62" t="s">
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="BC10" s="62"/>
-      <c r="BD10" s="62"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="62"/>
-      <c r="BG10" s="62"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="62"/>
-      <c r="BJ10" s="62"/>
-      <c r="BK10" s="62"/>
-      <c r="BL10" s="62"/>
-      <c r="BM10" s="62"/>
-      <c r="BN10" s="62"/>
-      <c r="BO10" s="62"/>
-      <c r="BP10" s="62"/>
-      <c r="BQ10" s="62"/>
-      <c r="BR10" s="62"/>
-      <c r="BS10" s="62"/>
-      <c r="BT10" s="62"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="62"/>
-      <c r="BW10" s="62"/>
-      <c r="BX10" s="62"/>
-      <c r="BY10" s="62"/>
-      <c r="BZ10" s="62"/>
-      <c r="CA10" s="62"/>
-      <c r="CB10" s="62"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="62"/>
-      <c r="CE10" s="62"/>
-      <c r="CF10" s="62"/>
-      <c r="CG10" s="62" t="s">
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="35"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="35"/>
+      <c r="BL10" s="35"/>
+      <c r="BM10" s="35"/>
+      <c r="BN10" s="35"/>
+      <c r="BO10" s="35"/>
+      <c r="BP10" s="35"/>
+      <c r="BQ10" s="35"/>
+      <c r="BR10" s="35"/>
+      <c r="BS10" s="35"/>
+      <c r="BT10" s="35"/>
+      <c r="BU10" s="35"/>
+      <c r="BV10" s="35"/>
+      <c r="BW10" s="35"/>
+      <c r="BX10" s="35"/>
+      <c r="BY10" s="35"/>
+      <c r="BZ10" s="35"/>
+      <c r="CA10" s="35"/>
+      <c r="CB10" s="35"/>
+      <c r="CC10" s="35"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="35"/>
+      <c r="CF10" s="35"/>
+      <c r="CG10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="CH10" s="62"/>
-      <c r="CI10" s="62"/>
-      <c r="CJ10" s="62"/>
-      <c r="CK10" s="62"/>
-      <c r="CL10" s="62"/>
-      <c r="CM10" s="62"/>
-      <c r="CN10" s="62"/>
-      <c r="CO10" s="62"/>
-      <c r="CP10" s="62"/>
-      <c r="CQ10" s="62"/>
-      <c r="CR10" s="62"/>
-      <c r="CS10" s="62"/>
-      <c r="CT10" s="62"/>
-      <c r="CU10" s="62"/>
-      <c r="CV10" s="62"/>
-      <c r="CW10" s="62"/>
-      <c r="CX10" s="62"/>
-      <c r="CY10" s="62"/>
-      <c r="CZ10" s="62"/>
-      <c r="DA10" s="62"/>
-      <c r="DB10" s="62"/>
-      <c r="DC10" s="62"/>
-      <c r="DD10" s="62"/>
-      <c r="DE10" s="62"/>
-      <c r="DF10" s="62"/>
-      <c r="DG10" s="62"/>
-      <c r="DH10" s="62"/>
-      <c r="DI10" s="62"/>
-      <c r="DJ10" s="62"/>
-      <c r="DK10" s="63"/>
+      <c r="CH10" s="35"/>
+      <c r="CI10" s="35"/>
+      <c r="CJ10" s="35"/>
+      <c r="CK10" s="35"/>
+      <c r="CL10" s="35"/>
+      <c r="CM10" s="35"/>
+      <c r="CN10" s="35"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="35"/>
+      <c r="CQ10" s="35"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="35"/>
+      <c r="CT10" s="35"/>
+      <c r="CU10" s="35"/>
+      <c r="CV10" s="35"/>
+      <c r="CW10" s="35"/>
+      <c r="CX10" s="35"/>
+      <c r="CY10" s="35"/>
+      <c r="CZ10" s="35"/>
+      <c r="DA10" s="35"/>
+      <c r="DB10" s="35"/>
+      <c r="DC10" s="35"/>
+      <c r="DD10" s="35"/>
+      <c r="DE10" s="35"/>
+      <c r="DF10" s="35"/>
+      <c r="DG10" s="35"/>
+      <c r="DH10" s="35"/>
+      <c r="DI10" s="35"/>
+      <c r="DJ10" s="35"/>
+      <c r="DK10" s="36"/>
     </row>
     <row r="11" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="20">
         <v>42882</v>
       </c>
@@ -2228,22 +2228,22 @@
       </c>
     </row>
     <row r="12" spans="3:115" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="18" t="str">
         <f>TEXT(S11,"aaa")</f>
         <v>土</v>
@@ -2634,28 +2634,28 @@
       </c>
     </row>
     <row r="13" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="33" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="45" t="s">
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="47"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
       <c r="S13" s="5" t="s">
         <v>45</v>
       </c>
@@ -2757,24 +2757,24 @@
       <c r="DK13" s="6"/>
     </row>
     <row r="14" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="39" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
       <c r="S14" s="4" t="s">
         <v>39</v>
       </c>
@@ -2876,24 +2876,24 @@
       <c r="DK14" s="7"/>
     </row>
     <row r="15" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="40" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
       <c r="S15" s="4" t="s">
         <v>39</v>
       </c>
@@ -2995,26 +2995,26 @@
       <c r="DK15" s="9"/>
     </row>
     <row r="16" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="36" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10" t="s">
         <v>46</v>
       </c>
@@ -3116,24 +3116,24 @@
       <c r="DK16" s="11"/>
     </row>
     <row r="17" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="39" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
       <c r="S17" s="4" t="s">
         <v>31</v>
       </c>
@@ -3235,24 +3235,24 @@
       <c r="DK17" s="7"/>
     </row>
     <row r="18" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="40" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
       <c r="S18" s="8" t="s">
         <v>31</v>
       </c>
@@ -3354,26 +3354,26 @@
       <c r="DK18" s="9"/>
     </row>
     <row r="19" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="24" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="36" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10" t="s">
         <v>47</v>
       </c>
@@ -3391,7 +3391,9 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
+      <c r="AH19" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
@@ -3475,24 +3477,24 @@
       <c r="DK19" s="11"/>
     </row>
     <row r="20" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="39" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3594,24 +3596,24 @@
       <c r="DK20" s="7"/>
     </row>
     <row r="21" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="40" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
       <c r="S21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3713,26 +3715,26 @@
       <c r="DK21" s="9"/>
     </row>
     <row r="22" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="24" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="36" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -3832,24 +3834,24 @@
       <c r="DK22" s="11"/>
     </row>
     <row r="23" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="39" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -3949,24 +3951,24 @@
       <c r="DK23" s="7"/>
     </row>
     <row r="24" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="40" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
@@ -4066,26 +4068,26 @@
       <c r="DK24" s="9"/>
     </row>
     <row r="25" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="24" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="36" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="38"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -4185,24 +4187,24 @@
       <c r="DK25" s="11"/>
     </row>
     <row r="26" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="39" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -4302,24 +4304,24 @@
       <c r="DK26" s="7"/>
     </row>
     <row r="27" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="40" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -4419,26 +4421,26 @@
       <c r="DK27" s="9"/>
     </row>
     <row r="28" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="24" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="36" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="38"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -4538,24 +4540,24 @@
       <c r="DK28" s="11"/>
     </row>
     <row r="29" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="39" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -4655,24 +4657,24 @@
       <c r="DK29" s="7"/>
     </row>
     <row r="30" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="39" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -4772,28 +4774,28 @@
       <c r="DK30" s="9"/>
     </row>
     <row r="31" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="33" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="45" t="s">
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4895,24 +4897,24 @@
       <c r="DK31" s="6"/>
     </row>
     <row r="32" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="39" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="4" t="s">
         <v>39</v>
       </c>
@@ -5014,24 +5016,24 @@
       <c r="DK32" s="7"/>
     </row>
     <row r="33" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="40" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
       <c r="S33" s="4"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -5131,26 +5133,26 @@
       <c r="DK33" s="9"/>
     </row>
     <row r="34" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="24" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="36" t="s">
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10" t="s">
         <v>31</v>
       </c>
@@ -5252,24 +5254,24 @@
       <c r="DK34" s="11"/>
     </row>
     <row r="35" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="39" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="4" t="s">
         <v>31</v>
       </c>
@@ -5371,24 +5373,24 @@
       <c r="DK35" s="7"/>
     </row>
     <row r="36" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="40" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
@@ -5488,26 +5490,26 @@
       <c r="DK36" s="9"/>
     </row>
     <row r="37" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="24" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="36" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="10" t="s">
         <v>31</v>
       </c>
@@ -5609,24 +5611,24 @@
       <c r="DK37" s="11"/>
     </row>
     <row r="38" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="39" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="4" t="s">
         <v>31</v>
       </c>
@@ -5728,24 +5730,24 @@
       <c r="DK38" s="7"/>
     </row>
     <row r="39" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="40" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -5845,26 +5847,26 @@
       <c r="DK39" s="9"/>
     </row>
     <row r="40" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="24" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="36" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="38"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
       <c r="S40" s="10"/>
       <c r="T40" s="22" t="s">
         <v>28</v>
@@ -5968,24 +5970,24 @@
       <c r="DK40" s="11"/>
     </row>
     <row r="41" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="39" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
       <c r="S41" s="4"/>
       <c r="T41" s="14" t="s">
         <v>27</v>
@@ -6089,24 +6091,24 @@
       <c r="DK41" s="7"/>
     </row>
     <row r="42" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="40" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
       <c r="S42" s="8"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23" t="s">
@@ -6210,26 +6212,26 @@
       <c r="DK42" s="9"/>
     </row>
     <row r="43" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="24" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="36" t="s">
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="38"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="32"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
@@ -6329,24 +6331,24 @@
       <c r="DK43" s="11"/>
     </row>
     <row r="44" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="39" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -6446,24 +6448,24 @@
       <c r="DK44" s="7"/>
     </row>
     <row r="45" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="40" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -6563,26 +6565,26 @@
       <c r="DK45" s="9"/>
     </row>
     <row r="46" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="24" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="36" t="s">
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="38"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
@@ -6682,24 +6684,24 @@
       <c r="DK46" s="11"/>
     </row>
     <row r="47" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C47" s="58"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="39" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -6799,24 +6801,24 @@
       <c r="DK47" s="7"/>
     </row>
     <row r="48" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="39" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -6916,28 +6918,28 @@
       <c r="DK48" s="9"/>
     </row>
     <row r="49" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="33" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="45" t="s">
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="47"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="5" t="s">
         <v>32</v>
       </c>
@@ -7039,24 +7041,24 @@
       <c r="DK49" s="6"/>
     </row>
     <row r="50" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="39" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
       <c r="S50" s="4" t="s">
         <v>39</v>
       </c>
@@ -7158,24 +7160,24 @@
       <c r="DK50" s="7"/>
     </row>
     <row r="51" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="40" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
       <c r="S51" s="4" t="s">
         <v>28</v>
       </c>
@@ -7277,26 +7279,26 @@
       <c r="DK51" s="9"/>
     </row>
     <row r="52" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="58"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="24" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="36" t="s">
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="38"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="32"/>
       <c r="S52" s="10" t="s">
         <v>31</v>
       </c>
@@ -7398,24 +7400,24 @@
       <c r="DK52" s="11"/>
     </row>
     <row r="53" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C53" s="58"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="39" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
       <c r="S53" s="4" t="s">
         <v>31</v>
       </c>
@@ -7517,24 +7519,24 @@
       <c r="DK53" s="7"/>
     </row>
     <row r="54" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="40" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
       <c r="S54" s="8" t="s">
         <v>31</v>
       </c>
@@ -7636,26 +7638,26 @@
       <c r="DK54" s="9"/>
     </row>
     <row r="55" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="24" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="36" t="s">
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
       <c r="S55" s="10" t="s">
         <v>31</v>
       </c>
@@ -7757,24 +7759,24 @@
       <c r="DK55" s="11"/>
     </row>
     <row r="56" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="39" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
       <c r="S56" s="4" t="s">
         <v>31</v>
       </c>
@@ -7876,24 +7878,24 @@
       <c r="DK56" s="7"/>
     </row>
     <row r="57" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="58"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="40" t="s">
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
       <c r="S57" s="8" t="s">
         <v>31</v>
       </c>
@@ -7995,26 +7997,26 @@
       <c r="DK57" s="9"/>
     </row>
     <row r="58" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="24" t="s">
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="36" t="s">
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="38"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="32"/>
       <c r="S58" s="10"/>
       <c r="T58" s="22" t="s">
         <v>28</v>
@@ -8116,24 +8118,24 @@
       <c r="DK58" s="11"/>
     </row>
     <row r="59" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="39" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
       <c r="S59" s="4"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
@@ -8233,24 +8235,24 @@
       <c r="DK59" s="7"/>
     </row>
     <row r="60" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="40" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
       <c r="S60" s="8"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -8350,26 +8352,26 @@
       <c r="DK60" s="9"/>
     </row>
     <row r="61" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="58"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="24" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="36" t="s">
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="38"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
@@ -8469,24 +8471,24 @@
       <c r="DK61" s="11"/>
     </row>
     <row r="62" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="39" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -8586,24 +8588,24 @@
       <c r="DK62" s="7"/>
     </row>
     <row r="63" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="40" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -8703,26 +8705,26 @@
       <c r="DK63" s="9"/>
     </row>
     <row r="64" spans="3:115" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="24" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="36" t="s">
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="38"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="32"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
@@ -8822,24 +8824,24 @@
       <c r="DK64" s="11"/>
     </row>
     <row r="65" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C65" s="58"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="39" t="s">
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -8939,24 +8941,24 @@
       <c r="DK65" s="7"/>
     </row>
     <row r="66" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="60"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="39" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -9056,28 +9058,28 @@
       <c r="DK66" s="9"/>
     </row>
     <row r="67" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="33" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="45" t="s">
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="47"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="58"/>
       <c r="S67" s="5" t="s">
         <v>32</v>
       </c>
@@ -9179,24 +9181,24 @@
       <c r="DK67" s="6"/>
     </row>
     <row r="68" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="39" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
       <c r="S68" s="4" t="s">
         <v>39</v>
       </c>
@@ -9298,24 +9300,24 @@
       <c r="DK68" s="7"/>
     </row>
     <row r="69" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="40" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
       <c r="S69" s="4" t="s">
         <v>39</v>
       </c>
@@ -9417,26 +9419,26 @@
       <c r="DK69" s="9"/>
     </row>
     <row r="70" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="58"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="24" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="36" t="s">
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="38"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="32"/>
       <c r="S70" s="10" t="s">
         <v>31</v>
       </c>
@@ -9538,24 +9540,24 @@
       <c r="DK70" s="11"/>
     </row>
     <row r="71" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="39" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
       <c r="S71" s="4" t="s">
         <v>31</v>
       </c>
@@ -9657,24 +9659,24 @@
       <c r="DK71" s="7"/>
     </row>
     <row r="72" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="40" t="s">
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
       <c r="S72" s="8" t="s">
         <v>31</v>
       </c>
@@ -9776,26 +9778,26 @@
       <c r="DK72" s="9"/>
     </row>
     <row r="73" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="24" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="36" t="s">
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="38"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="32"/>
       <c r="S73" s="10" t="s">
         <v>31</v>
       </c>
@@ -9897,24 +9899,24 @@
       <c r="DK73" s="11"/>
     </row>
     <row r="74" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="39" t="s">
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
       <c r="S74" s="4" t="s">
         <v>31</v>
       </c>
@@ -10016,24 +10018,24 @@
       <c r="DK74" s="7"/>
     </row>
     <row r="75" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="40" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
       <c r="S75" s="8" t="s">
         <v>31</v>
       </c>
@@ -10135,26 +10137,26 @@
       <c r="DK75" s="9"/>
     </row>
     <row r="76" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="24" t="s">
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="36" t="s">
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="38"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="32"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -10254,24 +10256,24 @@
       <c r="DK76" s="11"/>
     </row>
     <row r="77" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="39" t="s">
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -10371,24 +10373,24 @@
       <c r="DK77" s="7"/>
     </row>
     <row r="78" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="40" t="s">
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
@@ -10488,26 +10490,26 @@
       <c r="DK78" s="9"/>
     </row>
     <row r="79" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="58"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="24" t="s">
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="36" t="s">
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="38"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="32"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
@@ -10607,24 +10609,24 @@
       <c r="DK79" s="11"/>
     </row>
     <row r="80" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="39" t="s">
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
@@ -10724,24 +10726,24 @@
       <c r="DK80" s="7"/>
     </row>
     <row r="81" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="40" t="s">
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
@@ -10841,26 +10843,26 @@
       <c r="DK81" s="9"/>
     </row>
     <row r="82" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="24" t="s">
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="36" t="s">
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="38"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="32"/>
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
@@ -10960,24 +10962,24 @@
       <c r="DK82" s="11"/>
     </row>
     <row r="83" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="39" t="s">
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
@@ -11077,24 +11079,24 @@
       <c r="DK83" s="7"/>
     </row>
     <row r="84" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="44" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P84" s="44"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
@@ -11195,6 +11197,114 @@
     </row>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="K28:N30"/>
+    <mergeCell ref="K31:N33"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="G82:J84"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="K79:N81"/>
+    <mergeCell ref="K82:N84"/>
+    <mergeCell ref="G79:J81"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="O74:R74"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="G76:J78"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="K73:N75"/>
+    <mergeCell ref="K76:N78"/>
+    <mergeCell ref="G73:J75"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="G70:J72"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="O72:R72"/>
+    <mergeCell ref="K70:N72"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="G64:J66"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="G67:J69"/>
+    <mergeCell ref="G61:J63"/>
+    <mergeCell ref="K61:N63"/>
+    <mergeCell ref="K64:N66"/>
+    <mergeCell ref="K67:N69"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="G58:J60"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="G49:J51"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="K46:N48"/>
+    <mergeCell ref="K49:N51"/>
+    <mergeCell ref="G55:J57"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="G46:J48"/>
+    <mergeCell ref="K52:N54"/>
+    <mergeCell ref="K55:N57"/>
+    <mergeCell ref="K58:N60"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="G43:J45"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="K40:N42"/>
+    <mergeCell ref="K43:N45"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="G37:J39"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="K34:N36"/>
+    <mergeCell ref="K37:N39"/>
+    <mergeCell ref="G34:J36"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="G13:J15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="G31:J33"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="G22:J24"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K25:N27"/>
     <mergeCell ref="C67:F84"/>
     <mergeCell ref="O52:R52"/>
     <mergeCell ref="O53:R53"/>
@@ -11219,150 +11329,10 @@
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="G13:J15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="G31:J33"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="G22:J24"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="G37:J39"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="K34:N36"/>
-    <mergeCell ref="K37:N39"/>
-    <mergeCell ref="G34:J36"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="G43:J45"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="K40:N42"/>
-    <mergeCell ref="K43:N45"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="G58:J60"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="G49:J51"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="K46:N48"/>
-    <mergeCell ref="K49:N51"/>
-    <mergeCell ref="G55:J57"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="G46:J48"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="G70:J72"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="O71:R71"/>
-    <mergeCell ref="O72:R72"/>
-    <mergeCell ref="K70:N72"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="G64:J66"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="G67:J69"/>
-    <mergeCell ref="G61:J63"/>
-    <mergeCell ref="O73:R73"/>
-    <mergeCell ref="O74:R74"/>
-    <mergeCell ref="O75:R75"/>
-    <mergeCell ref="G76:J78"/>
-    <mergeCell ref="O76:R76"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="O78:R78"/>
-    <mergeCell ref="K73:N75"/>
-    <mergeCell ref="K76:N78"/>
-    <mergeCell ref="G73:J75"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="G82:J84"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="K79:N81"/>
-    <mergeCell ref="K82:N84"/>
-    <mergeCell ref="G79:J81"/>
-    <mergeCell ref="K52:N54"/>
-    <mergeCell ref="K55:N57"/>
-    <mergeCell ref="K58:N60"/>
-    <mergeCell ref="K61:N63"/>
-    <mergeCell ref="K64:N66"/>
-    <mergeCell ref="K67:N69"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="K28:N30"/>
-    <mergeCell ref="K31:N33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ロボコン進捗管理表_20170527.xlsx
+++ b/ロボコン進捗管理表_20170527.xlsx
@@ -18,8 +18,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tomoki</author>
+  </authors>
+  <commentList>
+    <comment ref="AO26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>走行距離検出機能の追加</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>スタート動作の改善（後ろに下がらないように、反対方向に進まないように</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
   <si>
     <t>チーム</t>
     <phoneticPr fontId="2"/>
@@ -245,27 +285,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未アサインタスク</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スタート担当</t>
-    <rPh sb="4" eb="6">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャリブレーション担当</t>
-    <rPh sb="9" eb="11">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -321,6 +340,18 @@
     <t>★</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +407,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -864,54 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,18 +930,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,6 +938,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,14 +999,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,16 +1067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>19591</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>266121</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>44263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>275105</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1052,8 +1091,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9963691" y="1266825"/>
-          <a:ext cx="8984" cy="13916025"/>
+          <a:off x="12424503" y="1220881"/>
+          <a:ext cx="8984" cy="13380383"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1264,16 +1303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>153521</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>35298</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>36419</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1288,8 +1327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10506075" y="990599"/>
-          <a:ext cx="1266825" cy="257175"/>
+          <a:off x="11751609" y="571500"/>
+          <a:ext cx="1282513" cy="641537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,7 +1364,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>設計計完了期限</a:t>
+            <a:t>アクティビティ図設計完了期限</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1725,12 +1764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:DK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="7" max="14" width="3.625" style="3"/>
@@ -1738,7 +1779,7 @@
     <col min="20" max="115" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:115" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:115">
       <c r="S4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1757,184 +1798,178 @@
         <v>32</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
-    <row r="6" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
+    <row r="6" spans="3:115">
+      <c r="C6" s="17"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="3:115" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:115">
       <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="3:115" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:115">
       <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="D8" s="16"/>
       <c r="BI8" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:115" ht="14.25" thickBot="1">
       <c r="BI9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C10" s="24" t="s">
+    <row r="10" spans="3:115">
+      <c r="C10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="37" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="35" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35" t="s">
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35" t="s">
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="35"/>
-      <c r="AX10" s="35"/>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
-      <c r="BA10" s="35"/>
-      <c r="BB10" s="35" t="s">
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="35"/>
-      <c r="BE10" s="35"/>
-      <c r="BF10" s="35"/>
-      <c r="BG10" s="35"/>
-      <c r="BH10" s="35"/>
-      <c r="BI10" s="35"/>
-      <c r="BJ10" s="35"/>
-      <c r="BK10" s="35"/>
-      <c r="BL10" s="35"/>
-      <c r="BM10" s="35"/>
-      <c r="BN10" s="35"/>
-      <c r="BO10" s="35"/>
-      <c r="BP10" s="35"/>
-      <c r="BQ10" s="35"/>
-      <c r="BR10" s="35"/>
-      <c r="BS10" s="35"/>
-      <c r="BT10" s="35"/>
-      <c r="BU10" s="35"/>
-      <c r="BV10" s="35"/>
-      <c r="BW10" s="35"/>
-      <c r="BX10" s="35"/>
-      <c r="BY10" s="35"/>
-      <c r="BZ10" s="35"/>
-      <c r="CA10" s="35"/>
-      <c r="CB10" s="35"/>
-      <c r="CC10" s="35"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="35"/>
-      <c r="CF10" s="35"/>
-      <c r="CG10" s="35" t="s">
+      <c r="BC10" s="62"/>
+      <c r="BD10" s="62"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="62"/>
+      <c r="BG10" s="62"/>
+      <c r="BH10" s="62"/>
+      <c r="BI10" s="62"/>
+      <c r="BJ10" s="62"/>
+      <c r="BK10" s="62"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="62"/>
+      <c r="BN10" s="62"/>
+      <c r="BO10" s="62"/>
+      <c r="BP10" s="62"/>
+      <c r="BQ10" s="62"/>
+      <c r="BR10" s="62"/>
+      <c r="BS10" s="62"/>
+      <c r="BT10" s="62"/>
+      <c r="BU10" s="62"/>
+      <c r="BV10" s="62"/>
+      <c r="BW10" s="62"/>
+      <c r="BX10" s="62"/>
+      <c r="BY10" s="62"/>
+      <c r="BZ10" s="62"/>
+      <c r="CA10" s="62"/>
+      <c r="CB10" s="62"/>
+      <c r="CC10" s="62"/>
+      <c r="CD10" s="62"/>
+      <c r="CE10" s="62"/>
+      <c r="CF10" s="62"/>
+      <c r="CG10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CH10" s="35"/>
-      <c r="CI10" s="35"/>
-      <c r="CJ10" s="35"/>
-      <c r="CK10" s="35"/>
-      <c r="CL10" s="35"/>
-      <c r="CM10" s="35"/>
-      <c r="CN10" s="35"/>
-      <c r="CO10" s="35"/>
-      <c r="CP10" s="35"/>
-      <c r="CQ10" s="35"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="35"/>
-      <c r="CT10" s="35"/>
-      <c r="CU10" s="35"/>
-      <c r="CV10" s="35"/>
-      <c r="CW10" s="35"/>
-      <c r="CX10" s="35"/>
-      <c r="CY10" s="35"/>
-      <c r="CZ10" s="35"/>
-      <c r="DA10" s="35"/>
-      <c r="DB10" s="35"/>
-      <c r="DC10" s="35"/>
-      <c r="DD10" s="35"/>
-      <c r="DE10" s="35"/>
-      <c r="DF10" s="35"/>
-      <c r="DG10" s="35"/>
-      <c r="DH10" s="35"/>
-      <c r="DI10" s="35"/>
-      <c r="DJ10" s="35"/>
-      <c r="DK10" s="36"/>
+      <c r="CH10" s="62"/>
+      <c r="CI10" s="62"/>
+      <c r="CJ10" s="62"/>
+      <c r="CK10" s="62"/>
+      <c r="CL10" s="62"/>
+      <c r="CM10" s="62"/>
+      <c r="CN10" s="62"/>
+      <c r="CO10" s="62"/>
+      <c r="CP10" s="62"/>
+      <c r="CQ10" s="62"/>
+      <c r="CR10" s="62"/>
+      <c r="CS10" s="62"/>
+      <c r="CT10" s="62"/>
+      <c r="CU10" s="62"/>
+      <c r="CV10" s="62"/>
+      <c r="CW10" s="62"/>
+      <c r="CX10" s="62"/>
+      <c r="CY10" s="62"/>
+      <c r="CZ10" s="62"/>
+      <c r="DA10" s="62"/>
+      <c r="DB10" s="62"/>
+      <c r="DC10" s="62"/>
+      <c r="DD10" s="62"/>
+      <c r="DE10" s="62"/>
+      <c r="DF10" s="62"/>
+      <c r="DG10" s="62"/>
+      <c r="DH10" s="62"/>
+      <c r="DI10" s="62"/>
+      <c r="DJ10" s="62"/>
+      <c r="DK10" s="63"/>
     </row>
-    <row r="11" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+    <row r="11" spans="3:115">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
       <c r="S11" s="20">
         <v>42882</v>
       </c>
@@ -2227,23 +2262,23 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="12" spans="3:115" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+    <row r="12" spans="3:115" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="18" t="str">
         <f>TEXT(S11,"aaa")</f>
         <v>土</v>
@@ -2633,31 +2668,31 @@
         <v>木</v>
       </c>
     </row>
-    <row r="13" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="24" t="s">
+    <row r="13" spans="3:115" ht="13.5" customHeight="1">
+      <c r="C13" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="53" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2756,27 +2791,27 @@
       <c r="DJ13" s="5"/>
       <c r="DK13" s="6"/>
     </row>
-    <row r="14" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
+    <row r="14" spans="3:115">
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -2875,27 +2910,27 @@
       <c r="DJ14" s="4"/>
       <c r="DK14" s="7"/>
     </row>
-    <row r="15" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+    <row r="15" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
       <c r="S15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
@@ -2994,29 +3029,29 @@
       <c r="DJ15" s="8"/>
       <c r="DK15" s="9"/>
     </row>
-    <row r="16" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="40" t="s">
+    <row r="16" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="30" t="s">
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -3115,25 +3150,25 @@
       <c r="DJ16" s="10"/>
       <c r="DK16" s="11"/>
     </row>
-    <row r="17" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+    <row r="17" spans="3:115">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="4" t="s">
         <v>31</v>
       </c>
@@ -3234,25 +3269,25 @@
       <c r="DJ17" s="4"/>
       <c r="DK17" s="7"/>
     </row>
-    <row r="18" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+    <row r="18" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="8" t="s">
         <v>31</v>
       </c>
@@ -3353,29 +3388,29 @@
       <c r="DJ18" s="8"/>
       <c r="DK18" s="9"/>
     </row>
-    <row r="19" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="30" t="s">
+    <row r="19" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
       <c r="S19" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -3392,7 +3427,7 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -3476,25 +3511,25 @@
       <c r="DJ19" s="10"/>
       <c r="DK19" s="11"/>
     </row>
-    <row r="20" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
+    <row r="20" spans="3:115">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3595,25 +3630,25 @@
       <c r="DJ20" s="4"/>
       <c r="DK20" s="7"/>
     </row>
-    <row r="21" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
+    <row r="21" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3714,27 +3749,27 @@
       <c r="DJ21" s="8"/>
       <c r="DK21" s="9"/>
     </row>
-    <row r="22" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="40" t="s">
+    <row r="22" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="30" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -3757,7 +3792,9 @@
       <c r="AL22" s="10"/>
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
+      <c r="AO22" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="10"/>
@@ -3833,25 +3870,25 @@
       <c r="DJ22" s="10"/>
       <c r="DK22" s="11"/>
     </row>
-    <row r="23" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+    <row r="23" spans="3:115">
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -3950,25 +3987,25 @@
       <c r="DJ23" s="4"/>
       <c r="DK23" s="7"/>
     </row>
-    <row r="24" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+    <row r="24" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
@@ -4067,27 +4104,27 @@
       <c r="DJ24" s="8"/>
       <c r="DK24" s="9"/>
     </row>
-    <row r="25" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="40" t="s">
+    <row r="25" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="30" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -4110,7 +4147,9 @@
       <c r="AL25" s="10"/>
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
+      <c r="AO25" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
@@ -4186,25 +4225,25 @@
       <c r="DJ25" s="10"/>
       <c r="DK25" s="11"/>
     </row>
-    <row r="26" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
+    <row r="26" spans="3:115">
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -4227,7 +4266,9 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
+      <c r="AO26" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
@@ -4303,25 +4344,25 @@
       <c r="DJ26" s="4"/>
       <c r="DK26" s="7"/>
     </row>
-    <row r="27" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
+    <row r="27" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -4346,7 +4387,9 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
+      <c r="AQ27" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
       <c r="AT27" s="8"/>
@@ -4420,27 +4463,27 @@
       <c r="DJ27" s="8"/>
       <c r="DK27" s="9"/>
     </row>
-    <row r="28" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="30" t="s">
+    <row r="28" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -4470,7 +4513,9 @@
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
       <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
+      <c r="AV28" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="AW28" s="10"/>
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
@@ -4539,25 +4584,25 @@
       <c r="DJ28" s="10"/>
       <c r="DK28" s="11"/>
     </row>
-    <row r="29" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
+    <row r="29" spans="3:115">
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -4656,25 +4701,25 @@
       <c r="DJ29" s="4"/>
       <c r="DK29" s="7"/>
     </row>
-    <row r="30" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
+    <row r="30" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -4773,29 +4818,29 @@
       <c r="DJ30" s="8"/>
       <c r="DK30" s="9"/>
     </row>
-    <row r="31" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="53" t="s">
+    <row r="31" spans="3:115" ht="13.5" customHeight="1">
+      <c r="C31" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4896,27 +4941,27 @@
       <c r="DJ31" s="5"/>
       <c r="DK31" s="6"/>
     </row>
-    <row r="32" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="33" t="s">
+    <row r="32" spans="3:115">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
       <c r="S32" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -5015,25 +5060,25 @@
       <c r="DJ32" s="4"/>
       <c r="DK32" s="7"/>
     </row>
-    <row r="33" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="34" t="s">
+    <row r="33" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="4"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -5132,27 +5177,27 @@
       <c r="DJ33" s="8"/>
       <c r="DK33" s="9"/>
     </row>
-    <row r="34" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="40" t="s">
+    <row r="34" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="30" t="s">
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
       <c r="S34" s="10" t="s">
         <v>31</v>
       </c>
@@ -5253,25 +5298,25 @@
       <c r="DJ34" s="10"/>
       <c r="DK34" s="11"/>
     </row>
-    <row r="35" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="33" t="s">
+    <row r="35" spans="3:115">
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
       <c r="S35" s="4" t="s">
         <v>31</v>
       </c>
@@ -5372,25 +5417,25 @@
       <c r="DJ35" s="4"/>
       <c r="DK35" s="7"/>
     </row>
-    <row r="36" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="34" t="s">
+    <row r="36" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
@@ -5489,27 +5534,27 @@
       <c r="DJ36" s="8"/>
       <c r="DK36" s="9"/>
     </row>
-    <row r="37" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="30" t="s">
+    <row r="37" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="32"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
       <c r="S37" s="10" t="s">
         <v>31</v>
       </c>
@@ -5610,25 +5655,25 @@
       <c r="DJ37" s="10"/>
       <c r="DK37" s="11"/>
     </row>
-    <row r="38" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="33" t="s">
+    <row r="38" spans="3:115">
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
       <c r="S38" s="4" t="s">
         <v>31</v>
       </c>
@@ -5729,25 +5774,25 @@
       <c r="DJ38" s="4"/>
       <c r="DK38" s="7"/>
     </row>
-    <row r="39" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="34" t="s">
+    <row r="39" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -5846,27 +5891,27 @@
       <c r="DJ39" s="8"/>
       <c r="DK39" s="9"/>
     </row>
-    <row r="40" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="40" t="s">
+    <row r="40" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="30" t="s">
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
       <c r="S40" s="10"/>
       <c r="T40" s="22" t="s">
         <v>28</v>
@@ -5969,25 +6014,25 @@
       <c r="DJ40" s="10"/>
       <c r="DK40" s="11"/>
     </row>
-    <row r="41" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="33" t="s">
+    <row r="41" spans="3:115">
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
       <c r="S41" s="4"/>
       <c r="T41" s="14" t="s">
         <v>27</v>
@@ -6090,25 +6135,25 @@
       <c r="DJ41" s="4"/>
       <c r="DK41" s="7"/>
     </row>
-    <row r="42" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="34" t="s">
+    <row r="42" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
       <c r="S42" s="8"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23" t="s">
@@ -6211,27 +6256,27 @@
       <c r="DJ42" s="8"/>
       <c r="DK42" s="9"/>
     </row>
-    <row r="43" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="40" t="s">
+    <row r="43" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="30" t="s">
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="38"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
@@ -6330,25 +6375,25 @@
       <c r="DJ43" s="10"/>
       <c r="DK43" s="11"/>
     </row>
-    <row r="44" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="33" t="s">
+    <row r="44" spans="3:115">
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -6447,25 +6492,25 @@
       <c r="DJ44" s="4"/>
       <c r="DK44" s="7"/>
     </row>
-    <row r="45" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="34" t="s">
+    <row r="45" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -6564,27 +6609,27 @@
       <c r="DJ45" s="8"/>
       <c r="DK45" s="9"/>
     </row>
-    <row r="46" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="30" t="s">
+    <row r="46" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="32"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="38"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
@@ -6683,25 +6728,25 @@
       <c r="DJ46" s="10"/>
       <c r="DK46" s="11"/>
     </row>
-    <row r="47" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="33" t="s">
+    <row r="47" spans="3:115">
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -6800,25 +6845,25 @@
       <c r="DJ47" s="4"/>
       <c r="DK47" s="7"/>
     </row>
-    <row r="48" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="33" t="s">
+    <row r="48" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -6917,29 +6962,29 @@
       <c r="DJ48" s="8"/>
       <c r="DK48" s="9"/>
     </row>
-    <row r="49" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="24" t="s">
+    <row r="49" spans="3:115" ht="13.5" customHeight="1">
+      <c r="C49" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="53" t="s">
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="56" t="s">
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="58"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="47"/>
       <c r="S49" s="5" t="s">
         <v>32</v>
       </c>
@@ -7040,27 +7085,27 @@
       <c r="DJ49" s="5"/>
       <c r="DK49" s="6"/>
     </row>
-    <row r="50" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="33" t="s">
+    <row r="50" spans="3:115">
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
       <c r="S50" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
@@ -7159,25 +7204,25 @@
       <c r="DJ50" s="4"/>
       <c r="DK50" s="7"/>
     </row>
-    <row r="51" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="34" t="s">
+    <row r="51" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
       <c r="S51" s="4" t="s">
         <v>28</v>
       </c>
@@ -7278,27 +7323,27 @@
       <c r="DJ51" s="8"/>
       <c r="DK51" s="9"/>
     </row>
-    <row r="52" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="40" t="s">
+    <row r="52" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C52" s="58"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="30" t="s">
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="32"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="38"/>
       <c r="S52" s="10" t="s">
         <v>31</v>
       </c>
@@ -7399,25 +7444,25 @@
       <c r="DJ52" s="10"/>
       <c r="DK52" s="11"/>
     </row>
-    <row r="53" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="33" t="s">
+    <row r="53" spans="3:115">
+      <c r="C53" s="58"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
       <c r="S53" s="4" t="s">
         <v>31</v>
       </c>
@@ -7518,25 +7563,25 @@
       <c r="DJ53" s="4"/>
       <c r="DK53" s="7"/>
     </row>
-    <row r="54" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="34" t="s">
+    <row r="54" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C54" s="58"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
       <c r="S54" s="8" t="s">
         <v>31</v>
       </c>
@@ -7637,27 +7682,27 @@
       <c r="DJ54" s="8"/>
       <c r="DK54" s="9"/>
     </row>
-    <row r="55" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="30" t="s">
+    <row r="55" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C55" s="58"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="32"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
       <c r="S55" s="10" t="s">
         <v>31</v>
       </c>
@@ -7758,25 +7803,25 @@
       <c r="DJ55" s="10"/>
       <c r="DK55" s="11"/>
     </row>
-    <row r="56" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="33" t="s">
+    <row r="56" spans="3:115">
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
       <c r="S56" s="4" t="s">
         <v>31</v>
       </c>
@@ -7877,25 +7922,25 @@
       <c r="DJ56" s="4"/>
       <c r="DK56" s="7"/>
     </row>
-    <row r="57" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="34" t="s">
+    <row r="57" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C57" s="58"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
       <c r="S57" s="8" t="s">
         <v>31</v>
       </c>
@@ -7996,27 +8041,27 @@
       <c r="DJ57" s="8"/>
       <c r="DK57" s="9"/>
     </row>
-    <row r="58" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="40" t="s">
+    <row r="58" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="30" t="s">
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="32"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="38"/>
       <c r="S58" s="10"/>
       <c r="T58" s="22" t="s">
         <v>28</v>
@@ -8117,25 +8162,25 @@
       <c r="DJ58" s="10"/>
       <c r="DK58" s="11"/>
     </row>
-    <row r="59" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="33" t="s">
+    <row r="59" spans="3:115">
+      <c r="C59" s="58"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
       <c r="S59" s="4"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
@@ -8234,25 +8279,25 @@
       <c r="DJ59" s="4"/>
       <c r="DK59" s="7"/>
     </row>
-    <row r="60" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="34" t="s">
+    <row r="60" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C60" s="58"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
       <c r="S60" s="8"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -8351,27 +8396,27 @@
       <c r="DJ60" s="8"/>
       <c r="DK60" s="9"/>
     </row>
-    <row r="61" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="40" t="s">
+    <row r="61" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C61" s="58"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="30" t="s">
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="38"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
@@ -8470,25 +8515,25 @@
       <c r="DJ61" s="10"/>
       <c r="DK61" s="11"/>
     </row>
-    <row r="62" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="33" t="s">
+    <row r="62" spans="3:115">
+      <c r="C62" s="58"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -8587,25 +8632,25 @@
       <c r="DJ62" s="4"/>
       <c r="DK62" s="7"/>
     </row>
-    <row r="63" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="34" t="s">
+    <row r="63" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C63" s="58"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -8704,27 +8749,27 @@
       <c r="DJ63" s="8"/>
       <c r="DK63" s="9"/>
     </row>
-    <row r="64" spans="3:115" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="30" t="s">
+    <row r="64" spans="3:115" ht="14.25" customHeight="1" thickTop="1">
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="32"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="38"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
@@ -8823,25 +8868,25 @@
       <c r="DJ64" s="10"/>
       <c r="DK64" s="11"/>
     </row>
-    <row r="65" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="33" t="s">
+    <row r="65" spans="3:115">
+      <c r="C65" s="58"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -8940,25 +8985,25 @@
       <c r="DJ65" s="4"/>
       <c r="DK65" s="7"/>
     </row>
-    <row r="66" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="33" t="s">
+    <row r="66" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -9057,29 +9102,29 @@
       <c r="DJ66" s="8"/>
       <c r="DK66" s="9"/>
     </row>
-    <row r="67" spans="3:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="53" t="s">
+    <row r="67" spans="3:115" ht="13.5" customHeight="1">
+      <c r="C67" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="56" t="s">
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="58"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="47"/>
       <c r="S67" s="5" t="s">
         <v>32</v>
       </c>
@@ -9180,27 +9225,27 @@
       <c r="DJ67" s="5"/>
       <c r="DK67" s="6"/>
     </row>
-    <row r="68" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="33" t="s">
+    <row r="68" spans="3:115">
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
       <c r="S68" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
@@ -9299,27 +9344,27 @@
       <c r="DJ68" s="4"/>
       <c r="DK68" s="7"/>
     </row>
-    <row r="69" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
+    <row r="69" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
       <c r="S69" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
@@ -9418,27 +9463,27 @@
       <c r="DJ69" s="8"/>
       <c r="DK69" s="9"/>
     </row>
-    <row r="70" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="40" t="s">
+    <row r="70" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C70" s="58"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="30" t="s">
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="32"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="38"/>
       <c r="S70" s="10" t="s">
         <v>31</v>
       </c>
@@ -9539,25 +9584,25 @@
       <c r="DJ70" s="10"/>
       <c r="DK70" s="11"/>
     </row>
-    <row r="71" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="33" t="s">
+    <row r="71" spans="3:115">
+      <c r="C71" s="58"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
       <c r="S71" s="4" t="s">
         <v>31</v>
       </c>
@@ -9658,25 +9703,25 @@
       <c r="DJ71" s="4"/>
       <c r="DK71" s="7"/>
     </row>
-    <row r="72" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
+    <row r="72" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
       <c r="S72" s="8" t="s">
         <v>31</v>
       </c>
@@ -9777,27 +9822,27 @@
       <c r="DJ72" s="8"/>
       <c r="DK72" s="9"/>
     </row>
-    <row r="73" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="30" t="s">
+    <row r="73" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C73" s="58"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="32"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="38"/>
       <c r="S73" s="10" t="s">
         <v>31</v>
       </c>
@@ -9898,25 +9943,25 @@
       <c r="DJ73" s="10"/>
       <c r="DK73" s="11"/>
     </row>
-    <row r="74" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="33" t="s">
+    <row r="74" spans="3:115">
+      <c r="C74" s="58"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
       <c r="S74" s="4" t="s">
         <v>31</v>
       </c>
@@ -10017,25 +10062,25 @@
       <c r="DJ74" s="4"/>
       <c r="DK74" s="7"/>
     </row>
-    <row r="75" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
+    <row r="75" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C75" s="58"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
       <c r="S75" s="8" t="s">
         <v>31</v>
       </c>
@@ -10136,27 +10181,27 @@
       <c r="DJ75" s="8"/>
       <c r="DK75" s="9"/>
     </row>
-    <row r="76" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="40" t="s">
+    <row r="76" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="30" t="s">
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="32"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="38"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -10255,25 +10300,25 @@
       <c r="DJ76" s="10"/>
       <c r="DK76" s="11"/>
     </row>
-    <row r="77" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="33" t="s">
+    <row r="77" spans="3:115">
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -10372,25 +10417,25 @@
       <c r="DJ77" s="4"/>
       <c r="DK77" s="7"/>
     </row>
-    <row r="78" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
+    <row r="78" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
@@ -10489,27 +10534,27 @@
       <c r="DJ78" s="8"/>
       <c r="DK78" s="9"/>
     </row>
-    <row r="79" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="40" t="s">
+    <row r="79" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C79" s="58"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="30" t="s">
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="32"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="38"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
@@ -10608,25 +10653,25 @@
       <c r="DJ79" s="10"/>
       <c r="DK79" s="11"/>
     </row>
-    <row r="80" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="33" t="s">
+    <row r="80" spans="3:115">
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
@@ -10725,25 +10770,25 @@
       <c r="DJ80" s="4"/>
       <c r="DK80" s="7"/>
     </row>
-    <row r="81" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
+    <row r="81" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
@@ -10842,27 +10887,27 @@
       <c r="DJ81" s="8"/>
       <c r="DK81" s="9"/>
     </row>
-    <row r="82" spans="3:115" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="30" t="s">
+    <row r="82" spans="3:115" ht="14.25" thickTop="1">
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="32"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="38"/>
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
@@ -10961,25 +11006,25 @@
       <c r="DJ82" s="10"/>
       <c r="DK82" s="11"/>
     </row>
-    <row r="83" spans="3:115" x14ac:dyDescent="0.15">
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="33" t="s">
+    <row r="83" spans="3:115">
+      <c r="C83" s="58"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
@@ -11078,25 +11123,25 @@
       <c r="DJ83" s="4"/>
       <c r="DK83" s="7"/>
     </row>
-    <row r="84" spans="3:115" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
+    <row r="84" spans="3:115" ht="14.25" thickBot="1">
+      <c r="C84" s="60"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
@@ -11197,6 +11242,114 @@
     </row>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="C67:F84"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:BA10"/>
+    <mergeCell ref="BB10:CF10"/>
+    <mergeCell ref="CG10:DK10"/>
+    <mergeCell ref="G10:J12"/>
+    <mergeCell ref="C13:F30"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="C31:F48"/>
+    <mergeCell ref="C49:F66"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="O10:R12"/>
+    <mergeCell ref="K10:N12"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="G16:J18"/>
+    <mergeCell ref="G19:J21"/>
+    <mergeCell ref="G28:J30"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="G13:J15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="G31:J33"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="G22:J24"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K25:N27"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="G37:J39"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="K34:N36"/>
+    <mergeCell ref="K37:N39"/>
+    <mergeCell ref="G34:J36"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="G43:J45"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="K40:N42"/>
+    <mergeCell ref="K43:N45"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="G58:J60"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="G49:J51"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="K46:N48"/>
+    <mergeCell ref="K49:N51"/>
+    <mergeCell ref="G55:J57"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="G46:J48"/>
+    <mergeCell ref="K52:N54"/>
+    <mergeCell ref="K55:N57"/>
+    <mergeCell ref="K58:N60"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="G70:J72"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="O72:R72"/>
+    <mergeCell ref="K70:N72"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="G64:J66"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="G67:J69"/>
+    <mergeCell ref="G61:J63"/>
+    <mergeCell ref="K61:N63"/>
+    <mergeCell ref="K64:N66"/>
+    <mergeCell ref="K67:N69"/>
     <mergeCell ref="K28:N30"/>
     <mergeCell ref="K31:N33"/>
     <mergeCell ref="O79:R79"/>
@@ -11221,118 +11374,11 @@
     <mergeCell ref="G73:J75"/>
     <mergeCell ref="O67:R67"/>
     <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="G70:J72"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="O71:R71"/>
-    <mergeCell ref="O72:R72"/>
-    <mergeCell ref="K70:N72"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="G64:J66"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="G67:J69"/>
-    <mergeCell ref="G61:J63"/>
-    <mergeCell ref="K61:N63"/>
-    <mergeCell ref="K64:N66"/>
-    <mergeCell ref="K67:N69"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="G58:J60"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="G49:J51"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="K46:N48"/>
-    <mergeCell ref="K49:N51"/>
-    <mergeCell ref="G55:J57"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="G46:J48"/>
-    <mergeCell ref="K52:N54"/>
-    <mergeCell ref="K55:N57"/>
-    <mergeCell ref="K58:N60"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="G43:J45"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="K40:N42"/>
-    <mergeCell ref="K43:N45"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="G37:J39"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="K34:N36"/>
-    <mergeCell ref="K37:N39"/>
-    <mergeCell ref="G34:J36"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="G13:J15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="G31:J33"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="G22:J24"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="C67:F84"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:BA10"/>
-    <mergeCell ref="BB10:CF10"/>
-    <mergeCell ref="CG10:DK10"/>
-    <mergeCell ref="G10:J12"/>
-    <mergeCell ref="C13:F30"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="C31:F48"/>
-    <mergeCell ref="C49:F66"/>
-    <mergeCell ref="C10:F12"/>
-    <mergeCell ref="O10:R12"/>
-    <mergeCell ref="K10:N12"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="G16:J18"/>
-    <mergeCell ref="G19:J21"/>
-    <mergeCell ref="G28:J30"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/ロボコン進捗管理表_20170527.xlsx
+++ b/ロボコン進捗管理表_20170527.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoki\Documents\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="12915" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -22,9 +17,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tomoki</author>
+    <author>望月泰貴</author>
   </authors>
   <commentList>
-    <comment ref="AO26" authorId="0" shapeId="0">
+    <comment ref="AO26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ27" authorId="0" shapeId="0">
+    <comment ref="AQ27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,12 +50,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI55" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Gitおよびtortoisegitをインストール</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI58" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>望月泰貴:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+ユースケース図を作成済。
+資格試験後にastaを追加しておきます。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>チーム</t>
     <phoneticPr fontId="2"/>
@@ -352,15 +390,19 @@
     <t>●</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +455,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -963,9 +1020,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +1083,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,7 +1140,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1195,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1250,7 @@
         <xdr:cNvPr id="6" name="直線コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1305,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1376,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1446,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1519,27 +1576,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1571,24 +1610,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1764,11 +1785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:DK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB54" sqref="AB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -1823,149 +1844,149 @@
       </c>
     </row>
     <row r="10" spans="3:115">
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="64" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64" t="s">
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="62" t="s">
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62" t="s">
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62" t="s">
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62" t="s">
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="BC10" s="62"/>
-      <c r="BD10" s="62"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="62"/>
-      <c r="BG10" s="62"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="62"/>
-      <c r="BJ10" s="62"/>
-      <c r="BK10" s="62"/>
-      <c r="BL10" s="62"/>
-      <c r="BM10" s="62"/>
-      <c r="BN10" s="62"/>
-      <c r="BO10" s="62"/>
-      <c r="BP10" s="62"/>
-      <c r="BQ10" s="62"/>
-      <c r="BR10" s="62"/>
-      <c r="BS10" s="62"/>
-      <c r="BT10" s="62"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="62"/>
-      <c r="BW10" s="62"/>
-      <c r="BX10" s="62"/>
-      <c r="BY10" s="62"/>
-      <c r="BZ10" s="62"/>
-      <c r="CA10" s="62"/>
-      <c r="CB10" s="62"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="62"/>
-      <c r="CE10" s="62"/>
-      <c r="CF10" s="62"/>
-      <c r="CG10" s="62" t="s">
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="61"/>
+      <c r="CG10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CH10" s="62"/>
-      <c r="CI10" s="62"/>
-      <c r="CJ10" s="62"/>
-      <c r="CK10" s="62"/>
-      <c r="CL10" s="62"/>
-      <c r="CM10" s="62"/>
-      <c r="CN10" s="62"/>
-      <c r="CO10" s="62"/>
-      <c r="CP10" s="62"/>
-      <c r="CQ10" s="62"/>
-      <c r="CR10" s="62"/>
-      <c r="CS10" s="62"/>
-      <c r="CT10" s="62"/>
-      <c r="CU10" s="62"/>
-      <c r="CV10" s="62"/>
-      <c r="CW10" s="62"/>
-      <c r="CX10" s="62"/>
-      <c r="CY10" s="62"/>
-      <c r="CZ10" s="62"/>
-      <c r="DA10" s="62"/>
-      <c r="DB10" s="62"/>
-      <c r="DC10" s="62"/>
-      <c r="DD10" s="62"/>
-      <c r="DE10" s="62"/>
-      <c r="DF10" s="62"/>
-      <c r="DG10" s="62"/>
-      <c r="DH10" s="62"/>
-      <c r="DI10" s="62"/>
-      <c r="DJ10" s="62"/>
-      <c r="DK10" s="63"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="61"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="61"/>
+      <c r="CS10" s="61"/>
+      <c r="CT10" s="61"/>
+      <c r="CU10" s="61"/>
+      <c r="CV10" s="61"/>
+      <c r="CW10" s="61"/>
+      <c r="CX10" s="61"/>
+      <c r="CY10" s="61"/>
+      <c r="CZ10" s="61"/>
+      <c r="DA10" s="61"/>
+      <c r="DB10" s="61"/>
+      <c r="DC10" s="61"/>
+      <c r="DD10" s="61"/>
+      <c r="DE10" s="61"/>
+      <c r="DF10" s="61"/>
+      <c r="DG10" s="61"/>
+      <c r="DH10" s="61"/>
+      <c r="DI10" s="61"/>
+      <c r="DJ10" s="61"/>
+      <c r="DK10" s="62"/>
     </row>
     <row r="11" spans="3:115">
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
       <c r="Q11" s="68"/>
@@ -2263,18 +2284,18 @@
       </c>
     </row>
     <row r="12" spans="3:115" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
       <c r="Q12" s="69"/>
@@ -2669,12 +2690,12 @@
       </c>
     </row>
     <row r="13" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="33" t="s">
         <v>21</v>
       </c>
@@ -2685,12 +2706,12 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="35"/>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="47"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="5" t="s">
         <v>42</v>
       </c>
@@ -2792,10 +2813,10 @@
       <c r="DK13" s="6"/>
     </row>
     <row r="14" spans="3:115">
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
@@ -2911,10 +2932,10 @@
       <c r="DK14" s="7"/>
     </row>
     <row r="15" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
@@ -3030,10 +3051,10 @@
       <c r="DK15" s="9"/>
     </row>
     <row r="16" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="24" t="s">
         <v>22</v>
       </c>
@@ -3151,10 +3172,10 @@
       <c r="DK16" s="11"/>
     </row>
     <row r="17" spans="3:115">
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -3270,10 +3291,10 @@
       <c r="DK17" s="7"/>
     </row>
     <row r="18" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -3389,10 +3410,10 @@
       <c r="DK18" s="9"/>
     </row>
     <row r="19" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="24" t="s">
         <v>37</v>
       </c>
@@ -3512,10 +3533,10 @@
       <c r="DK19" s="11"/>
     </row>
     <row r="20" spans="3:115">
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -3631,10 +3652,10 @@
       <c r="DK20" s="7"/>
     </row>
     <row r="21" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
@@ -3750,10 +3771,10 @@
       <c r="DK21" s="9"/>
     </row>
     <row r="22" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
@@ -3871,10 +3892,10 @@
       <c r="DK22" s="11"/>
     </row>
     <row r="23" spans="3:115">
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -3988,10 +4009,10 @@
       <c r="DK23" s="7"/>
     </row>
     <row r="24" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -4105,10 +4126,10 @@
       <c r="DK24" s="9"/>
     </row>
     <row r="25" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="24" t="s">
         <v>24</v>
       </c>
@@ -4226,10 +4247,10 @@
       <c r="DK25" s="11"/>
     </row>
     <row r="26" spans="3:115">
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -4345,10 +4366,10 @@
       <c r="DK26" s="7"/>
     </row>
     <row r="27" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -4464,10 +4485,10 @@
       <c r="DK27" s="9"/>
     </row>
     <row r="28" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="24" t="s">
         <v>38</v>
       </c>
@@ -4585,10 +4606,10 @@
       <c r="DK28" s="11"/>
     </row>
     <row r="29" spans="3:115">
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -4702,10 +4723,10 @@
       <c r="DK29" s="7"/>
     </row>
     <row r="30" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
@@ -4819,12 +4840,12 @@
       <c r="DK30" s="9"/>
     </row>
     <row r="31" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="33" t="s">
         <v>21</v>
       </c>
@@ -4835,12 +4856,12 @@
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="35"/>
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
       <c r="S31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4942,10 +4963,10 @@
       <c r="DK31" s="6"/>
     </row>
     <row r="32" spans="3:115">
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -5061,10 +5082,10 @@
       <c r="DK32" s="7"/>
     </row>
     <row r="33" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
@@ -5178,10 +5199,10 @@
       <c r="DK33" s="9"/>
     </row>
     <row r="34" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="24" t="s">
         <v>22</v>
       </c>
@@ -5299,10 +5320,10 @@
       <c r="DK34" s="11"/>
     </row>
     <row r="35" spans="3:115">
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -5418,10 +5439,10 @@
       <c r="DK35" s="7"/>
     </row>
     <row r="36" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
@@ -5535,10 +5556,10 @@
       <c r="DK36" s="9"/>
     </row>
     <row r="37" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="24" t="s">
         <v>37</v>
       </c>
@@ -5656,10 +5677,10 @@
       <c r="DK37" s="11"/>
     </row>
     <row r="38" spans="3:115">
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -5775,10 +5796,10 @@
       <c r="DK38" s="7"/>
     </row>
     <row r="39" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
@@ -5892,10 +5913,10 @@
       <c r="DK39" s="9"/>
     </row>
     <row r="40" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="24" t="s">
         <v>23</v>
       </c>
@@ -6015,10 +6036,10 @@
       <c r="DK40" s="11"/>
     </row>
     <row r="41" spans="3:115">
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -6136,10 +6157,10 @@
       <c r="DK41" s="7"/>
     </row>
     <row r="42" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
@@ -6257,10 +6278,10 @@
       <c r="DK42" s="9"/>
     </row>
     <row r="43" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="24" t="s">
         <v>24</v>
       </c>
@@ -6376,10 +6397,10 @@
       <c r="DK43" s="11"/>
     </row>
     <row r="44" spans="3:115">
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
@@ -6493,10 +6514,10 @@
       <c r="DK44" s="7"/>
     </row>
     <row r="45" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="30"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
@@ -6610,10 +6631,10 @@
       <c r="DK45" s="9"/>
     </row>
     <row r="46" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="24" t="s">
         <v>38</v>
       </c>
@@ -6729,10 +6750,10 @@
       <c r="DK46" s="11"/>
     </row>
     <row r="47" spans="3:115">
-      <c r="C47" s="58"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
@@ -6846,10 +6867,10 @@
       <c r="DK47" s="7"/>
     </row>
     <row r="48" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="30"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
@@ -6963,12 +6984,12 @@
       <c r="DK48" s="9"/>
     </row>
     <row r="49" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="33" t="s">
         <v>21</v>
       </c>
@@ -6979,12 +7000,12 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="35"/>
-      <c r="O49" s="45" t="s">
+      <c r="O49" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="47"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="46"/>
       <c r="S49" s="5" t="s">
         <v>32</v>
       </c>
@@ -7086,10 +7107,10 @@
       <c r="DK49" s="6"/>
     </row>
     <row r="50" spans="3:115">
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
@@ -7205,10 +7226,10 @@
       <c r="DK50" s="7"/>
     </row>
     <row r="51" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="30"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
@@ -7324,10 +7345,10 @@
       <c r="DK51" s="9"/>
     </row>
     <row r="52" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C52" s="58"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="24" t="s">
         <v>22</v>
       </c>
@@ -7445,10 +7466,10 @@
       <c r="DK52" s="11"/>
     </row>
     <row r="53" spans="3:115">
-      <c r="C53" s="58"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -7564,10 +7585,10 @@
       <c r="DK53" s="7"/>
     </row>
     <row r="54" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="30"/>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
@@ -7683,10 +7704,10 @@
       <c r="DK54" s="9"/>
     </row>
     <row r="55" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="24" t="s">
         <v>37</v>
       </c>
@@ -7721,7 +7742,9 @@
       <c r="AF55" s="10"/>
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
+      <c r="AI55" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="AJ55" s="10"/>
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
@@ -7804,10 +7827,10 @@
       <c r="DK55" s="11"/>
     </row>
     <row r="56" spans="3:115">
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
@@ -7923,10 +7946,10 @@
       <c r="DK56" s="7"/>
     </row>
     <row r="57" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C57" s="58"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="30"/>
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
@@ -8042,10 +8065,10 @@
       <c r="DK57" s="9"/>
     </row>
     <row r="58" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="24" t="s">
         <v>23</v>
       </c>
@@ -8163,10 +8186,10 @@
       <c r="DK58" s="11"/>
     </row>
     <row r="59" spans="3:115">
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -8280,10 +8303,10 @@
       <c r="DK59" s="7"/>
     </row>
     <row r="60" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="30"/>
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
@@ -8397,10 +8420,10 @@
       <c r="DK60" s="9"/>
     </row>
     <row r="61" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C61" s="58"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="24" t="s">
         <v>24</v>
       </c>
@@ -8516,10 +8539,10 @@
       <c r="DK61" s="11"/>
     </row>
     <row r="62" spans="3:115">
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
@@ -8633,10 +8656,10 @@
       <c r="DK62" s="7"/>
     </row>
     <row r="63" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="30"/>
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
@@ -8750,16 +8773,16 @@
       <c r="DK63" s="9"/>
     </row>
     <row r="64" spans="3:115" ht="14.25" customHeight="1" thickTop="1">
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="49"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="48"/>
       <c r="K64" s="24"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
@@ -8869,14 +8892,14 @@
       <c r="DK64" s="11"/>
     </row>
     <row r="65" spans="3:115">
-      <c r="C65" s="58"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="27"/>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -8986,14 +9009,14 @@
       <c r="DK65" s="7"/>
     </row>
     <row r="66" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C66" s="60"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="55"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
       <c r="K66" s="30"/>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -9103,12 +9126,12 @@
       <c r="DK66" s="9"/>
     </row>
     <row r="67" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
       <c r="G67" s="33" t="s">
         <v>21</v>
       </c>
@@ -9119,12 +9142,12 @@
       <c r="L67" s="34"/>
       <c r="M67" s="34"/>
       <c r="N67" s="35"/>
-      <c r="O67" s="45" t="s">
+      <c r="O67" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="47"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="46"/>
       <c r="S67" s="5" t="s">
         <v>32</v>
       </c>
@@ -9226,10 +9249,10 @@
       <c r="DK67" s="6"/>
     </row>
     <row r="68" spans="3:115">
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
@@ -9345,10 +9368,10 @@
       <c r="DK68" s="7"/>
     </row>
     <row r="69" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="30"/>
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
@@ -9464,10 +9487,10 @@
       <c r="DK69" s="9"/>
     </row>
     <row r="70" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C70" s="58"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="24" t="s">
         <v>22</v>
       </c>
@@ -9585,10 +9608,10 @@
       <c r="DK70" s="11"/>
     </row>
     <row r="71" spans="3:115">
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
@@ -9704,10 +9727,10 @@
       <c r="DK71" s="7"/>
     </row>
     <row r="72" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="30"/>
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
@@ -9823,10 +9846,10 @@
       <c r="DK72" s="9"/>
     </row>
     <row r="73" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="24" t="s">
         <v>37</v>
       </c>
@@ -9944,10 +9967,10 @@
       <c r="DK73" s="11"/>
     </row>
     <row r="74" spans="3:115">
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
@@ -10063,10 +10086,10 @@
       <c r="DK74" s="7"/>
     </row>
     <row r="75" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="30"/>
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
@@ -10182,10 +10205,10 @@
       <c r="DK75" s="9"/>
     </row>
     <row r="76" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="24" t="s">
         <v>23</v>
       </c>
@@ -10301,10 +10324,10 @@
       <c r="DK76" s="11"/>
     </row>
     <row r="77" spans="3:115">
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
@@ -10418,10 +10441,10 @@
       <c r="DK77" s="7"/>
     </row>
     <row r="78" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="30"/>
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
@@ -10535,10 +10558,10 @@
       <c r="DK78" s="9"/>
     </row>
     <row r="79" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C79" s="58"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="24" t="s">
         <v>24</v>
       </c>
@@ -10654,10 +10677,10 @@
       <c r="DK79" s="11"/>
     </row>
     <row r="80" spans="3:115">
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -10771,10 +10794,10 @@
       <c r="DK80" s="7"/>
     </row>
     <row r="81" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="30"/>
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
@@ -10888,10 +10911,10 @@
       <c r="DK81" s="9"/>
     </row>
     <row r="82" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="24" t="s">
         <v>38</v>
       </c>
@@ -11007,10 +11030,10 @@
       <c r="DK82" s="11"/>
     </row>
     <row r="83" spans="3:115">
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="27"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -11124,10 +11147,10 @@
       <c r="DK83" s="7"/>
     </row>
     <row r="84" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C84" s="60"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>

--- a/ロボコン進捗管理表_20170527.xlsx
+++ b/ロボコン進捗管理表_20170527.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="50">
   <si>
     <t>チーム</t>
     <phoneticPr fontId="2"/>
@@ -960,6 +960,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,6 +1035,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,30 +1054,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,50 +1089,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,7 +1140,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1195,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1250,7 @@
         <xdr:cNvPr id="6" name="直線コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1305,7 +1305,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1376,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:DK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB54" sqref="AB54"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -1844,153 +1844,153 @@
       </c>
     </row>
     <row r="10" spans="3:115">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="63" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63" t="s">
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="61" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61" t="s">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61" t="s">
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="61" t="s">
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="61"/>
-      <c r="BR10" s="61"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="61"/>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="61"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="61"/>
-      <c r="CD10" s="61"/>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="61"/>
-      <c r="CG10" s="61" t="s">
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="35"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="35"/>
+      <c r="BL10" s="35"/>
+      <c r="BM10" s="35"/>
+      <c r="BN10" s="35"/>
+      <c r="BO10" s="35"/>
+      <c r="BP10" s="35"/>
+      <c r="BQ10" s="35"/>
+      <c r="BR10" s="35"/>
+      <c r="BS10" s="35"/>
+      <c r="BT10" s="35"/>
+      <c r="BU10" s="35"/>
+      <c r="BV10" s="35"/>
+      <c r="BW10" s="35"/>
+      <c r="BX10" s="35"/>
+      <c r="BY10" s="35"/>
+      <c r="BZ10" s="35"/>
+      <c r="CA10" s="35"/>
+      <c r="CB10" s="35"/>
+      <c r="CC10" s="35"/>
+      <c r="CD10" s="35"/>
+      <c r="CE10" s="35"/>
+      <c r="CF10" s="35"/>
+      <c r="CG10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="CH10" s="61"/>
-      <c r="CI10" s="61"/>
-      <c r="CJ10" s="61"/>
-      <c r="CK10" s="61"/>
-      <c r="CL10" s="61"/>
-      <c r="CM10" s="61"/>
-      <c r="CN10" s="61"/>
-      <c r="CO10" s="61"/>
-      <c r="CP10" s="61"/>
-      <c r="CQ10" s="61"/>
-      <c r="CR10" s="61"/>
-      <c r="CS10" s="61"/>
-      <c r="CT10" s="61"/>
-      <c r="CU10" s="61"/>
-      <c r="CV10" s="61"/>
-      <c r="CW10" s="61"/>
-      <c r="CX10" s="61"/>
-      <c r="CY10" s="61"/>
-      <c r="CZ10" s="61"/>
-      <c r="DA10" s="61"/>
-      <c r="DB10" s="61"/>
-      <c r="DC10" s="61"/>
-      <c r="DD10" s="61"/>
-      <c r="DE10" s="61"/>
-      <c r="DF10" s="61"/>
-      <c r="DG10" s="61"/>
-      <c r="DH10" s="61"/>
-      <c r="DI10" s="61"/>
-      <c r="DJ10" s="61"/>
-      <c r="DK10" s="62"/>
+      <c r="CH10" s="35"/>
+      <c r="CI10" s="35"/>
+      <c r="CJ10" s="35"/>
+      <c r="CK10" s="35"/>
+      <c r="CL10" s="35"/>
+      <c r="CM10" s="35"/>
+      <c r="CN10" s="35"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="35"/>
+      <c r="CQ10" s="35"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="35"/>
+      <c r="CT10" s="35"/>
+      <c r="CU10" s="35"/>
+      <c r="CV10" s="35"/>
+      <c r="CW10" s="35"/>
+      <c r="CX10" s="35"/>
+      <c r="CY10" s="35"/>
+      <c r="CZ10" s="35"/>
+      <c r="DA10" s="35"/>
+      <c r="DB10" s="35"/>
+      <c r="DC10" s="35"/>
+      <c r="DD10" s="35"/>
+      <c r="DE10" s="35"/>
+      <c r="DF10" s="35"/>
+      <c r="DG10" s="35"/>
+      <c r="DH10" s="35"/>
+      <c r="DI10" s="35"/>
+      <c r="DJ10" s="35"/>
+      <c r="DK10" s="36"/>
     </row>
     <row r="11" spans="3:115">
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="20">
         <v>42882</v>
       </c>
@@ -2284,22 +2284,22 @@
       </c>
     </row>
     <row r="12" spans="3:115" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="18" t="str">
         <f>TEXT(S11,"aaa")</f>
         <v>土</v>
@@ -2690,28 +2690,28 @@
       </c>
     </row>
     <row r="13" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="33" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="44" t="s">
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
       <c r="S13" s="5" t="s">
         <v>42</v>
       </c>
@@ -2813,24 +2813,24 @@
       <c r="DK13" s="6"/>
     </row>
     <row r="14" spans="3:115">
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="39" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
       <c r="S14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2932,24 +2932,24 @@
       <c r="DK14" s="7"/>
     </row>
     <row r="15" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="40" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
       <c r="S15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3051,26 +3051,26 @@
       <c r="DK15" s="9"/>
     </row>
     <row r="16" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="36" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
       <c r="S16" s="10" t="s">
         <v>43</v>
       </c>
@@ -3172,24 +3172,24 @@
       <c r="DK16" s="11"/>
     </row>
     <row r="17" spans="3:115">
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="39" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
       <c r="S17" s="4" t="s">
         <v>31</v>
       </c>
@@ -3291,24 +3291,24 @@
       <c r="DK17" s="7"/>
     </row>
     <row r="18" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="40" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
       <c r="S18" s="8" t="s">
         <v>31</v>
       </c>
@@ -3410,26 +3410,26 @@
       <c r="DK18" s="9"/>
     </row>
     <row r="19" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="24" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="36" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="10" t="s">
         <v>44</v>
       </c>
@@ -3533,24 +3533,24 @@
       <c r="DK19" s="11"/>
     </row>
     <row r="20" spans="3:115">
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="39" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
       <c r="S20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3652,24 +3652,24 @@
       <c r="DK20" s="7"/>
     </row>
     <row r="21" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="40" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
       <c r="S21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3771,26 +3771,26 @@
       <c r="DK21" s="9"/>
     </row>
     <row r="22" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="24" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="36" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="38"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -3892,24 +3892,24 @@
       <c r="DK22" s="11"/>
     </row>
     <row r="23" spans="3:115">
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="39" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -4009,24 +4009,24 @@
       <c r="DK23" s="7"/>
     </row>
     <row r="24" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="40" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
@@ -4126,26 +4126,26 @@
       <c r="DK24" s="9"/>
     </row>
     <row r="25" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="24" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="36" t="s">
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="38"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -4247,24 +4247,24 @@
       <c r="DK25" s="11"/>
     </row>
     <row r="26" spans="3:115">
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="39" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -4366,24 +4366,24 @@
       <c r="DK26" s="7"/>
     </row>
     <row r="27" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="40" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -4485,26 +4485,26 @@
       <c r="DK27" s="9"/>
     </row>
     <row r="28" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="24" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="36" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="38"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -4606,24 +4606,24 @@
       <c r="DK28" s="11"/>
     </row>
     <row r="29" spans="3:115">
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="39" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -4723,24 +4723,24 @@
       <c r="DK29" s="7"/>
     </row>
     <row r="30" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="40" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -4840,28 +4840,28 @@
       <c r="DK30" s="9"/>
     </row>
     <row r="31" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="33" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="44" t="s">
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
       <c r="S31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4963,24 +4963,24 @@
       <c r="DK31" s="6"/>
     </row>
     <row r="32" spans="3:115">
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="39" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="4" t="s">
         <v>36</v>
       </c>
@@ -5082,25 +5082,27 @@
       <c r="DK32" s="7"/>
     </row>
     <row r="33" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="40" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="4"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -5199,26 +5201,26 @@
       <c r="DK33" s="9"/>
     </row>
     <row r="34" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="24" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="36" t="s">
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="10" t="s">
         <v>31</v>
       </c>
@@ -5320,24 +5322,24 @@
       <c r="DK34" s="11"/>
     </row>
     <row r="35" spans="3:115">
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="39" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="4" t="s">
         <v>31</v>
       </c>
@@ -5439,25 +5441,27 @@
       <c r="DK35" s="7"/>
     </row>
     <row r="36" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="40" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="8"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -5556,26 +5560,26 @@
       <c r="DK36" s="9"/>
     </row>
     <row r="37" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="24" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="36" t="s">
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="10" t="s">
         <v>31</v>
       </c>
@@ -5677,24 +5681,24 @@
       <c r="DK37" s="11"/>
     </row>
     <row r="38" spans="3:115">
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="39" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="4" t="s">
         <v>31</v>
       </c>
@@ -5796,25 +5800,27 @@
       <c r="DK38" s="7"/>
     </row>
     <row r="39" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="40" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="8"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -5913,26 +5919,26 @@
       <c r="DK39" s="9"/>
     </row>
     <row r="40" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="24" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="36" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="38"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
       <c r="S40" s="10"/>
       <c r="T40" s="22" t="s">
         <v>28</v>
@@ -6036,24 +6042,24 @@
       <c r="DK40" s="11"/>
     </row>
     <row r="41" spans="3:115">
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="39" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
       <c r="S41" s="4"/>
       <c r="T41" s="14" t="s">
         <v>27</v>
@@ -6157,24 +6163,24 @@
       <c r="DK41" s="7"/>
     </row>
     <row r="42" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="40" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
       <c r="S42" s="8"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23" t="s">
@@ -6278,26 +6284,26 @@
       <c r="DK42" s="9"/>
     </row>
     <row r="43" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="24" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="36" t="s">
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="38"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="32"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
@@ -6397,24 +6403,24 @@
       <c r="DK43" s="11"/>
     </row>
     <row r="44" spans="3:115">
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="39" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -6514,24 +6520,24 @@
       <c r="DK44" s="7"/>
     </row>
     <row r="45" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="40" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -6631,26 +6637,26 @@
       <c r="DK45" s="9"/>
     </row>
     <row r="46" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="24" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="36" t="s">
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="38"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
@@ -6750,24 +6756,24 @@
       <c r="DK46" s="11"/>
     </row>
     <row r="47" spans="3:115">
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="39" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -6867,24 +6873,24 @@
       <c r="DK47" s="7"/>
     </row>
     <row r="48" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="39" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -6984,28 +6990,28 @@
       <c r="DK48" s="9"/>
     </row>
     <row r="49" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="33" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="44" t="s">
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="46"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="5" t="s">
         <v>32</v>
       </c>
@@ -7107,24 +7113,24 @@
       <c r="DK49" s="6"/>
     </row>
     <row r="50" spans="3:115">
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="39" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
       <c r="S50" s="4" t="s">
         <v>36</v>
       </c>
@@ -7226,24 +7232,24 @@
       <c r="DK50" s="7"/>
     </row>
     <row r="51" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="40" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
       <c r="S51" s="4" t="s">
         <v>28</v>
       </c>
@@ -7345,26 +7351,26 @@
       <c r="DK51" s="9"/>
     </row>
     <row r="52" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C52" s="57"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="24" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="36" t="s">
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="38"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="32"/>
       <c r="S52" s="10" t="s">
         <v>31</v>
       </c>
@@ -7466,24 +7472,24 @@
       <c r="DK52" s="11"/>
     </row>
     <row r="53" spans="3:115">
-      <c r="C53" s="57"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="39" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
       <c r="S53" s="4" t="s">
         <v>31</v>
       </c>
@@ -7585,24 +7591,24 @@
       <c r="DK53" s="7"/>
     </row>
     <row r="54" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C54" s="57"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="40" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
       <c r="S54" s="8" t="s">
         <v>31</v>
       </c>
@@ -7704,26 +7710,26 @@
       <c r="DK54" s="9"/>
     </row>
     <row r="55" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="24" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="36" t="s">
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
       <c r="S55" s="10" t="s">
         <v>31</v>
       </c>
@@ -7827,24 +7833,24 @@
       <c r="DK55" s="11"/>
     </row>
     <row r="56" spans="3:115">
-      <c r="C56" s="57"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="39" t="s">
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
       <c r="S56" s="4" t="s">
         <v>31</v>
       </c>
@@ -7946,24 +7952,24 @@
       <c r="DK56" s="7"/>
     </row>
     <row r="57" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C57" s="57"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="40" t="s">
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
       <c r="S57" s="8" t="s">
         <v>31</v>
       </c>
@@ -8065,26 +8071,26 @@
       <c r="DK57" s="9"/>
     </row>
     <row r="58" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C58" s="57"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="24" t="s">
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="36" t="s">
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="38"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="32"/>
       <c r="S58" s="10"/>
       <c r="T58" s="22" t="s">
         <v>28</v>
@@ -8186,24 +8192,24 @@
       <c r="DK58" s="11"/>
     </row>
     <row r="59" spans="3:115">
-      <c r="C59" s="57"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="39" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
       <c r="S59" s="4"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
@@ -8303,24 +8309,24 @@
       <c r="DK59" s="7"/>
     </row>
     <row r="60" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C60" s="57"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="40" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
       <c r="S60" s="8"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -8420,26 +8426,26 @@
       <c r="DK60" s="9"/>
     </row>
     <row r="61" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C61" s="57"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="24" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="36" t="s">
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="38"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
@@ -8539,24 +8545,24 @@
       <c r="DK61" s="11"/>
     </row>
     <row r="62" spans="3:115">
-      <c r="C62" s="57"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="39" t="s">
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -8656,24 +8662,24 @@
       <c r="DK62" s="7"/>
     </row>
     <row r="63" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C63" s="57"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="40" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -8773,26 +8779,26 @@
       <c r="DK63" s="9"/>
     </row>
     <row r="64" spans="3:115" ht="14.25" customHeight="1" thickTop="1">
-      <c r="C64" s="57"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="24" t="s">
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="36" t="s">
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="38"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="32"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
@@ -8892,24 +8898,24 @@
       <c r="DK64" s="11"/>
     </row>
     <row r="65" spans="3:115">
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="39" t="s">
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -9009,24 +9015,24 @@
       <c r="DK65" s="7"/>
     </row>
     <row r="66" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="39" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -9126,28 +9132,28 @@
       <c r="DK66" s="9"/>
     </row>
     <row r="67" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="33" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="44" t="s">
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="46"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="58"/>
       <c r="S67" s="5" t="s">
         <v>32</v>
       </c>
@@ -9249,24 +9255,24 @@
       <c r="DK67" s="6"/>
     </row>
     <row r="68" spans="3:115">
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="39" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
       <c r="S68" s="4" t="s">
         <v>36</v>
       </c>
@@ -9368,24 +9374,24 @@
       <c r="DK68" s="7"/>
     </row>
     <row r="69" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="40" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
       <c r="S69" s="4" t="s">
         <v>36</v>
       </c>
@@ -9487,26 +9493,26 @@
       <c r="DK69" s="9"/>
     </row>
     <row r="70" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="24" t="s">
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="36" t="s">
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="38"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="32"/>
       <c r="S70" s="10" t="s">
         <v>31</v>
       </c>
@@ -9608,24 +9614,24 @@
       <c r="DK70" s="11"/>
     </row>
     <row r="71" spans="3:115">
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="39" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
       <c r="S71" s="4" t="s">
         <v>31</v>
       </c>
@@ -9727,24 +9733,24 @@
       <c r="DK71" s="7"/>
     </row>
     <row r="72" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="40" t="s">
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
       <c r="S72" s="8" t="s">
         <v>31</v>
       </c>
@@ -9846,26 +9852,26 @@
       <c r="DK72" s="9"/>
     </row>
     <row r="73" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="24" t="s">
+      <c r="C73" s="26"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="36" t="s">
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="38"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="32"/>
       <c r="S73" s="10" t="s">
         <v>31</v>
       </c>
@@ -9967,24 +9973,24 @@
       <c r="DK73" s="11"/>
     </row>
     <row r="74" spans="3:115">
-      <c r="C74" s="57"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="39" t="s">
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
       <c r="S74" s="4" t="s">
         <v>31</v>
       </c>
@@ -10086,24 +10092,24 @@
       <c r="DK74" s="7"/>
     </row>
     <row r="75" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="40" t="s">
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
       <c r="S75" s="8" t="s">
         <v>31</v>
       </c>
@@ -10205,26 +10211,26 @@
       <c r="DK75" s="9"/>
     </row>
     <row r="76" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="24" t="s">
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="36" t="s">
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="38"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="32"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -10324,24 +10330,24 @@
       <c r="DK76" s="11"/>
     </row>
     <row r="77" spans="3:115">
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="39" t="s">
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -10441,24 +10447,24 @@
       <c r="DK77" s="7"/>
     </row>
     <row r="78" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="40" t="s">
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
@@ -10558,26 +10564,26 @@
       <c r="DK78" s="9"/>
     </row>
     <row r="79" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="24" t="s">
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="36" t="s">
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="38"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="32"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
@@ -10677,24 +10683,24 @@
       <c r="DK79" s="11"/>
     </row>
     <row r="80" spans="3:115">
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="39" t="s">
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
@@ -10794,24 +10800,24 @@
       <c r="DK80" s="7"/>
     </row>
     <row r="81" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="40" t="s">
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
@@ -10911,26 +10917,26 @@
       <c r="DK81" s="9"/>
     </row>
     <row r="82" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="24" t="s">
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="36" t="s">
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="38"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="32"/>
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
@@ -11030,24 +11036,24 @@
       <c r="DK82" s="11"/>
     </row>
     <row r="83" spans="3:115">
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="39" t="s">
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
@@ -11147,24 +11153,24 @@
       <c r="DK83" s="7"/>
     </row>
     <row r="84" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="40" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
@@ -11265,6 +11271,114 @@
     </row>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="K28:N30"/>
+    <mergeCell ref="K31:N33"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="G82:J84"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="K79:N81"/>
+    <mergeCell ref="K82:N84"/>
+    <mergeCell ref="G79:J81"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="O74:R74"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="G76:J78"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="K73:N75"/>
+    <mergeCell ref="K76:N78"/>
+    <mergeCell ref="G73:J75"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="G70:J72"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="O72:R72"/>
+    <mergeCell ref="K70:N72"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="G64:J66"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="G67:J69"/>
+    <mergeCell ref="G61:J63"/>
+    <mergeCell ref="K61:N63"/>
+    <mergeCell ref="K64:N66"/>
+    <mergeCell ref="K67:N69"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="G58:J60"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="G49:J51"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="K46:N48"/>
+    <mergeCell ref="K49:N51"/>
+    <mergeCell ref="G55:J57"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="G46:J48"/>
+    <mergeCell ref="K52:N54"/>
+    <mergeCell ref="K55:N57"/>
+    <mergeCell ref="K58:N60"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="G43:J45"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="K40:N42"/>
+    <mergeCell ref="K43:N45"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="G37:J39"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="K34:N36"/>
+    <mergeCell ref="K37:N39"/>
+    <mergeCell ref="G34:J36"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="G13:J15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="G31:J33"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="G22:J24"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K25:N27"/>
     <mergeCell ref="C67:F84"/>
     <mergeCell ref="O52:R52"/>
     <mergeCell ref="O53:R53"/>
@@ -11289,114 +11403,6 @@
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="G13:J15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="G31:J33"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="G22:J24"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="G37:J39"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="K34:N36"/>
-    <mergeCell ref="K37:N39"/>
-    <mergeCell ref="G34:J36"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="G43:J45"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="K40:N42"/>
-    <mergeCell ref="K43:N45"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="G58:J60"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="G49:J51"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="K46:N48"/>
-    <mergeCell ref="K49:N51"/>
-    <mergeCell ref="G55:J57"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="G46:J48"/>
-    <mergeCell ref="K52:N54"/>
-    <mergeCell ref="K55:N57"/>
-    <mergeCell ref="K58:N60"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="G70:J72"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="O71:R71"/>
-    <mergeCell ref="O72:R72"/>
-    <mergeCell ref="K70:N72"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="G64:J66"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="G67:J69"/>
-    <mergeCell ref="G61:J63"/>
-    <mergeCell ref="K61:N63"/>
-    <mergeCell ref="K64:N66"/>
-    <mergeCell ref="K67:N69"/>
-    <mergeCell ref="K28:N30"/>
-    <mergeCell ref="K31:N33"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="G82:J84"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="K79:N81"/>
-    <mergeCell ref="K82:N84"/>
-    <mergeCell ref="G79:J81"/>
-    <mergeCell ref="O73:R73"/>
-    <mergeCell ref="O74:R74"/>
-    <mergeCell ref="O75:R75"/>
-    <mergeCell ref="G76:J78"/>
-    <mergeCell ref="O76:R76"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="O78:R78"/>
-    <mergeCell ref="K73:N75"/>
-    <mergeCell ref="K76:N78"/>
-    <mergeCell ref="G73:J75"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="O68:R68"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ロボコン進捗管理表_20170527.xlsx
+++ b/ロボコン進捗管理表_20170527.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoki\Documents\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="12915" windowHeight="7830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="進捗表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -20,7 +25,7 @@
     <author>望月泰貴</author>
   </authors>
   <commentList>
-    <comment ref="AO26" authorId="0">
+    <comment ref="AO26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ27" authorId="0">
+    <comment ref="AQ27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI55" authorId="1">
+    <comment ref="AI55" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI58" authorId="1">
+    <comment ref="AI58" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -353,16 +358,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>完了条件</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>★</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -394,11 +389,21 @@
     <t>★</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>役割分担</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンタン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
@@ -474,7 +479,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,54 +971,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,18 +998,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,6 +1005,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,14 +1064,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,61 +1162,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>266121</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>275105</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12424503" y="1220881"/>
-          <a:ext cx="8984" cy="13380383"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>541</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -1195,7 +1178,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,23 +1217,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>14148</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80281</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>2942</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>14148</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>2942</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>81802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直線コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,8 +1241,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5184862" y="1318531"/>
-          <a:ext cx="0" cy="13888811"/>
+          <a:off x="15242942" y="1167252"/>
+          <a:ext cx="0" cy="13706315"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1289,23 +1272,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>106455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,8 +1296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3838575" y="952499"/>
-          <a:ext cx="600075" cy="257175"/>
+          <a:off x="5109882" y="946896"/>
+          <a:ext cx="773206" cy="240928"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,7 +1359,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1429,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1576,9 +1559,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1610,6 +1611,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1785,42 +1804,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:DK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="7" max="14" width="3.625" style="3"/>
-    <col min="19" max="19" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="115" width="3.625" style="1"/>
+    <col min="19" max="19" width="3.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="53" width="3.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="3.625" style="1" collapsed="1"/>
+    <col min="55" max="115" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:115">
-      <c r="S4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Z4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
     <row r="6" spans="3:115">
@@ -1844,153 +1871,153 @@
       </c>
     </row>
     <row r="10" spans="3:115">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="37" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="35" t="s">
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35" t="s">
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35" t="s">
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AS10" s="35"/>
-      <c r="AT10" s="35"/>
-      <c r="AU10" s="35"/>
-      <c r="AV10" s="35"/>
-      <c r="AW10" s="35"/>
-      <c r="AX10" s="35"/>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
-      <c r="BA10" s="35"/>
-      <c r="BB10" s="35" t="s">
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="BC10" s="35"/>
-      <c r="BD10" s="35"/>
-      <c r="BE10" s="35"/>
-      <c r="BF10" s="35"/>
-      <c r="BG10" s="35"/>
-      <c r="BH10" s="35"/>
-      <c r="BI10" s="35"/>
-      <c r="BJ10" s="35"/>
-      <c r="BK10" s="35"/>
-      <c r="BL10" s="35"/>
-      <c r="BM10" s="35"/>
-      <c r="BN10" s="35"/>
-      <c r="BO10" s="35"/>
-      <c r="BP10" s="35"/>
-      <c r="BQ10" s="35"/>
-      <c r="BR10" s="35"/>
-      <c r="BS10" s="35"/>
-      <c r="BT10" s="35"/>
-      <c r="BU10" s="35"/>
-      <c r="BV10" s="35"/>
-      <c r="BW10" s="35"/>
-      <c r="BX10" s="35"/>
-      <c r="BY10" s="35"/>
-      <c r="BZ10" s="35"/>
-      <c r="CA10" s="35"/>
-      <c r="CB10" s="35"/>
-      <c r="CC10" s="35"/>
-      <c r="CD10" s="35"/>
-      <c r="CE10" s="35"/>
-      <c r="CF10" s="35"/>
-      <c r="CG10" s="35" t="s">
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="61"/>
+      <c r="CG10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CH10" s="35"/>
-      <c r="CI10" s="35"/>
-      <c r="CJ10" s="35"/>
-      <c r="CK10" s="35"/>
-      <c r="CL10" s="35"/>
-      <c r="CM10" s="35"/>
-      <c r="CN10" s="35"/>
-      <c r="CO10" s="35"/>
-      <c r="CP10" s="35"/>
-      <c r="CQ10" s="35"/>
-      <c r="CR10" s="35"/>
-      <c r="CS10" s="35"/>
-      <c r="CT10" s="35"/>
-      <c r="CU10" s="35"/>
-      <c r="CV10" s="35"/>
-      <c r="CW10" s="35"/>
-      <c r="CX10" s="35"/>
-      <c r="CY10" s="35"/>
-      <c r="CZ10" s="35"/>
-      <c r="DA10" s="35"/>
-      <c r="DB10" s="35"/>
-      <c r="DC10" s="35"/>
-      <c r="DD10" s="35"/>
-      <c r="DE10" s="35"/>
-      <c r="DF10" s="35"/>
-      <c r="DG10" s="35"/>
-      <c r="DH10" s="35"/>
-      <c r="DI10" s="35"/>
-      <c r="DJ10" s="35"/>
-      <c r="DK10" s="36"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="61"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="61"/>
+      <c r="CS10" s="61"/>
+      <c r="CT10" s="61"/>
+      <c r="CU10" s="61"/>
+      <c r="CV10" s="61"/>
+      <c r="CW10" s="61"/>
+      <c r="CX10" s="61"/>
+      <c r="CY10" s="61"/>
+      <c r="CZ10" s="61"/>
+      <c r="DA10" s="61"/>
+      <c r="DB10" s="61"/>
+      <c r="DC10" s="61"/>
+      <c r="DD10" s="61"/>
+      <c r="DE10" s="61"/>
+      <c r="DF10" s="61"/>
+      <c r="DG10" s="61"/>
+      <c r="DH10" s="61"/>
+      <c r="DI10" s="61"/>
+      <c r="DJ10" s="61"/>
+      <c r="DK10" s="62"/>
     </row>
     <row r="11" spans="3:115">
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
       <c r="S11" s="20">
         <v>42882</v>
       </c>
@@ -2284,22 +2311,22 @@
       </c>
     </row>
     <row r="12" spans="3:115" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
       <c r="S12" s="18" t="str">
         <f>TEXT(S11,"aaa")</f>
         <v>土</v>
@@ -2690,30 +2717,30 @@
       </c>
     </row>
     <row r="13" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="53" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2813,24 +2840,24 @@
       <c r="DK13" s="6"/>
     </row>
     <row r="14" spans="3:115">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="33" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2932,24 +2959,24 @@
       <c r="DK14" s="7"/>
     </row>
     <row r="15" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="34" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
       <c r="S15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3051,28 +3078,28 @@
       <c r="DK15" s="9"/>
     </row>
     <row r="16" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="40" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="30" t="s">
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
@@ -3172,24 +3199,24 @@
       <c r="DK16" s="11"/>
     </row>
     <row r="17" spans="3:115">
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="33" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="4" t="s">
         <v>31</v>
       </c>
@@ -3291,24 +3318,24 @@
       <c r="DK17" s="7"/>
     </row>
     <row r="18" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="34" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
       <c r="S18" s="8" t="s">
         <v>31</v>
       </c>
@@ -3410,28 +3437,28 @@
       <c r="DK18" s="9"/>
     </row>
     <row r="19" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="40" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="30" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
       <c r="S19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
@@ -3448,7 +3475,7 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -3533,24 +3560,24 @@
       <c r="DK19" s="11"/>
     </row>
     <row r="20" spans="3:115">
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="33" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
       <c r="S20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3652,24 +3679,24 @@
       <c r="DK20" s="7"/>
     </row>
     <row r="21" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="34" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
       <c r="S21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3771,26 +3798,26 @@
       <c r="DK21" s="9"/>
     </row>
     <row r="22" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="40" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="30" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -3814,7 +3841,7 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="10"/>
       <c r="AO22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="10"/>
@@ -3892,24 +3919,24 @@
       <c r="DK22" s="11"/>
     </row>
     <row r="23" spans="3:115">
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="33" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -4009,24 +4036,24 @@
       <c r="DK23" s="7"/>
     </row>
     <row r="24" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="34" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
@@ -4126,26 +4153,26 @@
       <c r="DK24" s="9"/>
     </row>
     <row r="25" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="40" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="30" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="32"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -4169,7 +4196,7 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
@@ -4247,24 +4274,24 @@
       <c r="DK25" s="11"/>
     </row>
     <row r="26" spans="3:115">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="33" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -4288,7 +4315,7 @@
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -4366,24 +4393,24 @@
       <c r="DK26" s="7"/>
     </row>
     <row r="27" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="34" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -4409,7 +4436,7 @@
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
@@ -4485,26 +4512,26 @@
       <c r="DK27" s="9"/>
     </row>
     <row r="28" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="40" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="30" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -4535,7 +4562,7 @@
       <c r="AT28" s="10"/>
       <c r="AU28" s="10"/>
       <c r="AV28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW28" s="10"/>
       <c r="AX28" s="10"/>
@@ -4606,24 +4633,24 @@
       <c r="DK28" s="11"/>
     </row>
     <row r="29" spans="3:115">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="33" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -4723,24 +4750,24 @@
       <c r="DK29" s="7"/>
     </row>
     <row r="30" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="34" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -4840,28 +4867,28 @@
       <c r="DK30" s="9"/>
     </row>
     <row r="31" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="53" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="46"/>
       <c r="S31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4963,24 +4990,24 @@
       <c r="DK31" s="6"/>
     </row>
     <row r="32" spans="3:115">
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="33" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
       <c r="S32" s="4" t="s">
         <v>36</v>
       </c>
@@ -5082,24 +5109,24 @@
       <c r="DK32" s="7"/>
     </row>
     <row r="33" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="34" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="4" t="s">
         <v>31</v>
       </c>
@@ -5201,26 +5228,26 @@
       <c r="DK33" s="9"/>
     </row>
     <row r="34" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="40" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="30" t="s">
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="32"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
       <c r="S34" s="10" t="s">
         <v>31</v>
       </c>
@@ -5322,24 +5349,24 @@
       <c r="DK34" s="11"/>
     </row>
     <row r="35" spans="3:115">
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="33" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
       <c r="S35" s="4" t="s">
         <v>31</v>
       </c>
@@ -5441,24 +5468,24 @@
       <c r="DK35" s="7"/>
     </row>
     <row r="36" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="34" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
       <c r="S36" s="4" t="s">
         <v>31</v>
       </c>
@@ -5560,26 +5587,26 @@
       <c r="DK36" s="9"/>
     </row>
     <row r="37" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="40" t="s">
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="30" t="s">
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="32"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
       <c r="S37" s="10" t="s">
         <v>31</v>
       </c>
@@ -5681,24 +5708,24 @@
       <c r="DK37" s="11"/>
     </row>
     <row r="38" spans="3:115">
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="33" t="s">
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
       <c r="S38" s="4" t="s">
         <v>31</v>
       </c>
@@ -5800,24 +5827,24 @@
       <c r="DK38" s="7"/>
     </row>
     <row r="39" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="34" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
       <c r="S39" s="4" t="s">
         <v>31</v>
       </c>
@@ -5919,26 +5946,26 @@
       <c r="DK39" s="9"/>
     </row>
     <row r="40" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="40" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="30" t="s">
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
       <c r="S40" s="10"/>
       <c r="T40" s="22" t="s">
         <v>28</v>
@@ -6042,24 +6069,24 @@
       <c r="DK40" s="11"/>
     </row>
     <row r="41" spans="3:115">
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="33" t="s">
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
       <c r="S41" s="4"/>
       <c r="T41" s="14" t="s">
         <v>27</v>
@@ -6163,24 +6190,24 @@
       <c r="DK41" s="7"/>
     </row>
     <row r="42" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="34" t="s">
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
       <c r="S42" s="8"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23" t="s">
@@ -6284,26 +6311,26 @@
       <c r="DK42" s="9"/>
     </row>
     <row r="43" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="40" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="30" t="s">
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="38"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
@@ -6403,24 +6430,24 @@
       <c r="DK43" s="11"/>
     </row>
     <row r="44" spans="3:115">
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="33" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -6520,24 +6547,24 @@
       <c r="DK44" s="7"/>
     </row>
     <row r="45" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="34" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -6637,26 +6664,26 @@
       <c r="DK45" s="9"/>
     </row>
     <row r="46" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="40" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="30" t="s">
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="32"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="38"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
@@ -6756,24 +6783,24 @@
       <c r="DK46" s="11"/>
     </row>
     <row r="47" spans="3:115">
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="33" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -6873,24 +6900,24 @@
       <c r="DK47" s="7"/>
     </row>
     <row r="48" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="33" t="s">
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -6990,28 +7017,28 @@
       <c r="DK48" s="9"/>
     </row>
     <row r="49" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="53" t="s">
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="56" t="s">
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="58"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="46"/>
       <c r="S49" s="5" t="s">
         <v>32</v>
       </c>
@@ -7113,24 +7140,24 @@
       <c r="DK49" s="6"/>
     </row>
     <row r="50" spans="3:115">
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="33" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
       <c r="S50" s="4" t="s">
         <v>36</v>
       </c>
@@ -7232,24 +7259,24 @@
       <c r="DK50" s="7"/>
     </row>
     <row r="51" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="34" t="s">
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
       <c r="S51" s="4" t="s">
         <v>28</v>
       </c>
@@ -7351,26 +7378,26 @@
       <c r="DK51" s="9"/>
     </row>
     <row r="52" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="40" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="30" t="s">
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="32"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="38"/>
       <c r="S52" s="10" t="s">
         <v>31</v>
       </c>
@@ -7472,24 +7499,24 @@
       <c r="DK52" s="11"/>
     </row>
     <row r="53" spans="3:115">
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="33" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
       <c r="S53" s="4" t="s">
         <v>31</v>
       </c>
@@ -7591,24 +7618,24 @@
       <c r="DK53" s="7"/>
     </row>
     <row r="54" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="34" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
       <c r="S54" s="8" t="s">
         <v>31</v>
       </c>
@@ -7710,26 +7737,26 @@
       <c r="DK54" s="9"/>
     </row>
     <row r="55" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="40" t="s">
+      <c r="C55" s="57"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="30" t="s">
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="32"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
       <c r="S55" s="10" t="s">
         <v>31</v>
       </c>
@@ -7749,7 +7776,7 @@
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
       <c r="AI55" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ55" s="10"/>
       <c r="AK55" s="10"/>
@@ -7833,24 +7860,24 @@
       <c r="DK55" s="11"/>
     </row>
     <row r="56" spans="3:115">
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="33" t="s">
+      <c r="C56" s="57"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
       <c r="S56" s="4" t="s">
         <v>31</v>
       </c>
@@ -7952,24 +7979,24 @@
       <c r="DK56" s="7"/>
     </row>
     <row r="57" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="34" t="s">
+      <c r="C57" s="57"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
       <c r="S57" s="8" t="s">
         <v>31</v>
       </c>
@@ -8071,26 +8098,26 @@
       <c r="DK57" s="9"/>
     </row>
     <row r="58" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="40" t="s">
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="30" t="s">
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="32"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="38"/>
       <c r="S58" s="10"/>
       <c r="T58" s="22" t="s">
         <v>28</v>
@@ -8192,24 +8219,24 @@
       <c r="DK58" s="11"/>
     </row>
     <row r="59" spans="3:115">
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="33" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
       <c r="S59" s="4"/>
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
@@ -8309,24 +8336,24 @@
       <c r="DK59" s="7"/>
     </row>
     <row r="60" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="34" t="s">
+      <c r="C60" s="57"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
       <c r="S60" s="8"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -8426,26 +8453,26 @@
       <c r="DK60" s="9"/>
     </row>
     <row r="61" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="40" t="s">
+      <c r="C61" s="57"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="30" t="s">
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="38"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
@@ -8545,24 +8572,24 @@
       <c r="DK61" s="11"/>
     </row>
     <row r="62" spans="3:115">
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="33" t="s">
+      <c r="C62" s="57"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -8662,24 +8689,24 @@
       <c r="DK62" s="7"/>
     </row>
     <row r="63" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="34" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -8779,26 +8806,26 @@
       <c r="DK63" s="9"/>
     </row>
     <row r="64" spans="3:115" ht="14.25" customHeight="1" thickTop="1">
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="40" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="30" t="s">
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="32"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="38"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
@@ -8898,24 +8925,24 @@
       <c r="DK64" s="11"/>
     </row>
     <row r="65" spans="3:115">
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="33" t="s">
+      <c r="C65" s="57"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -9015,24 +9042,24 @@
       <c r="DK65" s="7"/>
     </row>
     <row r="66" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="33" t="s">
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -9132,28 +9159,28 @@
       <c r="DK66" s="9"/>
     </row>
     <row r="67" spans="3:115" ht="13.5" customHeight="1">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="53" t="s">
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="56" t="s">
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="58"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="46"/>
       <c r="S67" s="5" t="s">
         <v>32</v>
       </c>
@@ -9255,24 +9282,24 @@
       <c r="DK67" s="6"/>
     </row>
     <row r="68" spans="3:115">
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="33" t="s">
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
       <c r="S68" s="4" t="s">
         <v>36</v>
       </c>
@@ -9374,24 +9401,24 @@
       <c r="DK68" s="7"/>
     </row>
     <row r="69" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="34" t="s">
+      <c r="C69" s="57"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
       <c r="S69" s="4" t="s">
         <v>36</v>
       </c>
@@ -9493,26 +9520,26 @@
       <c r="DK69" s="9"/>
     </row>
     <row r="70" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="40" t="s">
+      <c r="C70" s="57"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="30" t="s">
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="32"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="38"/>
       <c r="S70" s="10" t="s">
         <v>31</v>
       </c>
@@ -9614,24 +9641,24 @@
       <c r="DK70" s="11"/>
     </row>
     <row r="71" spans="3:115">
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="33" t="s">
+      <c r="C71" s="57"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
       <c r="S71" s="4" t="s">
         <v>31</v>
       </c>
@@ -9733,24 +9760,24 @@
       <c r="DK71" s="7"/>
     </row>
     <row r="72" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="34" t="s">
+      <c r="C72" s="57"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
       <c r="S72" s="8" t="s">
         <v>31</v>
       </c>
@@ -9852,26 +9879,26 @@
       <c r="DK72" s="9"/>
     </row>
     <row r="73" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="40" t="s">
+      <c r="C73" s="57"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="30" t="s">
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="32"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="38"/>
       <c r="S73" s="10" t="s">
         <v>31</v>
       </c>
@@ -9973,24 +10000,24 @@
       <c r="DK73" s="11"/>
     </row>
     <row r="74" spans="3:115">
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="33" t="s">
+      <c r="C74" s="57"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
       <c r="S74" s="4" t="s">
         <v>31</v>
       </c>
@@ -10092,24 +10119,24 @@
       <c r="DK74" s="7"/>
     </row>
     <row r="75" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="34" t="s">
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
       <c r="S75" s="8" t="s">
         <v>31</v>
       </c>
@@ -10211,26 +10238,26 @@
       <c r="DK75" s="9"/>
     </row>
     <row r="76" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="40" t="s">
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="30" t="s">
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="32"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="38"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
@@ -10330,24 +10357,24 @@
       <c r="DK76" s="11"/>
     </row>
     <row r="77" spans="3:115">
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="33" t="s">
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -10447,24 +10474,24 @@
       <c r="DK77" s="7"/>
     </row>
     <row r="78" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="34" t="s">
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
@@ -10564,26 +10591,26 @@
       <c r="DK78" s="9"/>
     </row>
     <row r="79" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="40" t="s">
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="30" t="s">
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="32"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="38"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
@@ -10683,24 +10710,24 @@
       <c r="DK79" s="11"/>
     </row>
     <row r="80" spans="3:115">
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="33" t="s">
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
@@ -10800,24 +10827,24 @@
       <c r="DK80" s="7"/>
     </row>
     <row r="81" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="34" t="s">
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
@@ -10917,26 +10944,26 @@
       <c r="DK81" s="9"/>
     </row>
     <row r="82" spans="3:115" ht="14.25" thickTop="1">
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="40" t="s">
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="30" t="s">
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="32"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="38"/>
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
@@ -11036,24 +11063,24 @@
       <c r="DK82" s="11"/>
     </row>
     <row r="83" spans="3:115">
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="33" t="s">
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
@@ -11153,24 +11180,24 @@
       <c r="DK83" s="7"/>
     </row>
     <row r="84" spans="3:115" ht="14.25" thickBot="1">
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="34" t="s">
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
@@ -11270,115 +11297,7 @@
       <c r="DK84" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="K28:N30"/>
-    <mergeCell ref="K31:N33"/>
-    <mergeCell ref="O79:R79"/>
-    <mergeCell ref="O80:R80"/>
-    <mergeCell ref="O81:R81"/>
-    <mergeCell ref="G82:J84"/>
-    <mergeCell ref="O82:R82"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="O84:R84"/>
-    <mergeCell ref="K79:N81"/>
-    <mergeCell ref="K82:N84"/>
-    <mergeCell ref="G79:J81"/>
-    <mergeCell ref="O73:R73"/>
-    <mergeCell ref="O74:R74"/>
-    <mergeCell ref="O75:R75"/>
-    <mergeCell ref="G76:J78"/>
-    <mergeCell ref="O76:R76"/>
-    <mergeCell ref="O77:R77"/>
-    <mergeCell ref="O78:R78"/>
-    <mergeCell ref="K73:N75"/>
-    <mergeCell ref="K76:N78"/>
-    <mergeCell ref="G73:J75"/>
-    <mergeCell ref="O67:R67"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="O69:R69"/>
-    <mergeCell ref="G70:J72"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="O71:R71"/>
-    <mergeCell ref="O72:R72"/>
-    <mergeCell ref="K70:N72"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="G64:J66"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="G67:J69"/>
-    <mergeCell ref="G61:J63"/>
-    <mergeCell ref="K61:N63"/>
-    <mergeCell ref="K64:N66"/>
-    <mergeCell ref="K67:N69"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="O57:R57"/>
-    <mergeCell ref="G58:J60"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="O59:R59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="G49:J51"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="K46:N48"/>
-    <mergeCell ref="K49:N51"/>
-    <mergeCell ref="G55:J57"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="G46:J48"/>
-    <mergeCell ref="K52:N54"/>
-    <mergeCell ref="K55:N57"/>
-    <mergeCell ref="K58:N60"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="G43:J45"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="K40:N42"/>
-    <mergeCell ref="K43:N45"/>
-    <mergeCell ref="G40:J42"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="G37:J39"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="K34:N36"/>
-    <mergeCell ref="K37:N39"/>
-    <mergeCell ref="G34:J36"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="G13:J15"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="G31:J33"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="G22:J24"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K25:N27"/>
+  <mergeCells count="129">
     <mergeCell ref="C67:F84"/>
     <mergeCell ref="O52:R52"/>
     <mergeCell ref="O53:R53"/>
@@ -11403,6 +11322,111 @@
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="G13:J15"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="G31:J33"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="G22:J24"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="G37:J39"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="K34:N36"/>
+    <mergeCell ref="K37:N39"/>
+    <mergeCell ref="G34:J36"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="G43:J45"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="K40:N42"/>
+    <mergeCell ref="K43:N45"/>
+    <mergeCell ref="G40:J42"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="O57:R57"/>
+    <mergeCell ref="G58:J60"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="O59:R59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="G49:J51"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="K46:N48"/>
+    <mergeCell ref="K49:N51"/>
+    <mergeCell ref="G55:J57"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="G46:J48"/>
+    <mergeCell ref="K52:N54"/>
+    <mergeCell ref="K55:N57"/>
+    <mergeCell ref="K58:N60"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="G70:J72"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="O71:R71"/>
+    <mergeCell ref="O72:R72"/>
+    <mergeCell ref="K70:N72"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="G64:J66"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="G67:J69"/>
+    <mergeCell ref="G61:J63"/>
+    <mergeCell ref="K61:N63"/>
+    <mergeCell ref="K64:N66"/>
+    <mergeCell ref="K67:N69"/>
+    <mergeCell ref="K31:N33"/>
+    <mergeCell ref="O79:R79"/>
+    <mergeCell ref="O80:R80"/>
+    <mergeCell ref="O81:R81"/>
+    <mergeCell ref="G82:J84"/>
+    <mergeCell ref="O82:R82"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="O84:R84"/>
+    <mergeCell ref="K79:N81"/>
+    <mergeCell ref="K82:N84"/>
+    <mergeCell ref="G79:J81"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="O74:R74"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="G76:J78"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="O77:R77"/>
+    <mergeCell ref="O78:R78"/>
+    <mergeCell ref="K73:N75"/>
+    <mergeCell ref="K76:N78"/>
+    <mergeCell ref="G73:J75"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="O68:R68"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
